--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,48 +478,56 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>läppäri</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>laptop</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ylös</t>
+          <t>lippu</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>ticket, flag</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>maistaa</t>
+          <t>harrastaa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>to taste, to try (a dish)</t>
+          <t>to have (as) a hobby</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -530,96 +538,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>aina</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>always</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>toinen</t>
+          <t>piirtää</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>other, another</t>
+          <t>to draw</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pitkä</t>
+          <t>ilta</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tall (humans)</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kirja</t>
+          <t>tarvita</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>to need</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ilta</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -630,128 +634,124 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tarvita</t>
+          <t>pitkä</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>to need</t>
+          <t>tall (humans)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>all (determiner)</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>liian</t>
+          <t>maistaa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>too (degree)</t>
+          <t>to taste, to try (a dish)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>harrastaa</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>to have (as) a hobby</t>
+          <t>all (determiner)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>viulu</t>
+          <t>ylös</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>violin</t>
+          <t>up</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kallis</t>
+          <t>kirja</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>expensive</t>
+          <t>book</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>suolainen</t>
+          <t>toinen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>salty, savory</t>
+          <t>other, another</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -762,16 +762,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>meri</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -782,16 +782,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tammi</t>
+          <t>kello</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>oak</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -802,16 +802,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>keittiö</t>
+          <t>Unkari</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -822,16 +822,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>naimisissa</t>
+          <t>musta</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>black</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -842,96 +842,96 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>oikea</t>
+          <t>shamaani</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>right (adjective)</t>
+          <t>shaman</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>paikallinen</t>
+          <t>viulu</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>violin</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kylmä</t>
+          <t>paistaa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>to shine (the sun)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tyyni</t>
+          <t>halata</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>to hug</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>suosittu</t>
+          <t>naimisissa</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>married</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -942,36 +942,36 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>halpa</t>
+          <t>tyttö</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ruma</t>
+          <t>suosittu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -982,56 +982,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>musta</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>karkki</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>candy</t>
+          <t>six</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>teatteri</t>
+          <t>pirtelö</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>theater</t>
+          <t>milkshake</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1042,56 +1034,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>päivä</t>
+          <t>ole hyvä</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>here you are</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lounas</t>
+          <t>rauhassa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>some quiet</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pistoke</t>
+          <t>Suomi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>power plug</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1102,36 +1086,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>viini</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>wine</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>annos</t>
+          <t>vesi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>portion, dish</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1142,56 +1122,56 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>kellari</t>
+          <t>saada</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>to get</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tyttö</t>
+          <t>oikea</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>right (adjective)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>undulaatti</t>
+          <t>amerikkalainen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>parakeet</t>
+          <t>American person</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1202,56 +1182,52 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pirtelö</t>
+          <t>kirjoittaa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>milkshake</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pöllö</t>
+          <t>kuusisataa</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>shamaani</t>
+          <t>annos</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>shaman</t>
+          <t>portion, dish</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1262,16 +1238,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nälkä</t>
+          <t>maa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hunger</t>
+          <t>country</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1282,36 +1258,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>amerikkalainen</t>
+          <t>Rooma</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>American person</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1322,36 +1294,36 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>karaoke</t>
+          <t>ruma</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>karaoke</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>Argentiina</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>spruce</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1362,56 +1334,52 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>taulu</t>
+          <t>paikallinen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>picture (anything to be put on a wall)</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>joki</t>
+          <t>paljon onnea</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>best of luck</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ravintola</t>
+          <t>pesäpallo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>nestball</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1422,56 +1390,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>meri</t>
+          <t>neljäsataa</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>kello</t>
+          <t>millainen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>what kind of</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Rooma</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1482,16 +1442,16 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>maa</t>
+          <t>olut</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>beer</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1502,56 +1462,56 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>päivänjatko</t>
+          <t>kallis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>continuation of a day</t>
+          <t>expensive</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>laulu</t>
+          <t>tutustua</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>to get to know, to meet</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>olut</t>
+          <t>marja</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>beer</t>
+          <t>berry</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1562,16 +1522,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>pyyhe</t>
+          <t>ravintola</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>towel</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1582,16 +1542,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>pesäpallo</t>
+          <t>nälkä</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>nestball</t>
+          <t>hunger</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1602,36 +1562,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>läppäri</t>
+          <t>te</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>laptop</t>
+          <t>you (plural)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>tori</t>
+          <t>tammi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>market square</t>
+          <t>oak</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1642,76 +1598,68 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lasit</t>
+          <t>liian</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(eye) glasses</t>
+          <t>too (degree)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lasku</t>
+          <t>luulla</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>check, bill</t>
+          <t>to reckon, to suppose, to think</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lippu</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ticket, flag</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>baletti</t>
+          <t>pyyhe</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ballet</t>
+          <t>towel</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1722,16 +1670,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>silta</t>
+          <t>karkki</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1742,16 +1690,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>tee</t>
+          <t>teatteri</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tea</t>
+          <t>theater</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1762,16 +1710,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>marja</t>
+          <t>tori</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>berry</t>
+          <t>market square</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1782,16 +1730,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>vesi</t>
+          <t>kellari</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1802,76 +1750,72 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>seurata</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>to follow</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>maalata</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>to paint</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>piirtää</t>
+          <t>lounas</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>to draw</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Suomi</t>
+          <t>pöllö</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1882,140 +1826,152 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>luulla</t>
+          <t>tee</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>to reckon, to suppose, to think</t>
+          <t>tea</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ole hyvä</t>
+          <t>silta</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>here you are</t>
+          <t>bridge</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>neuloa</t>
+          <t>karaoke</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>to knit</t>
+          <t>karaoke</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>paistaa</t>
+          <t>lasit</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>to shine (the sun)</t>
+          <t>(eye) glasses</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>paljon onnea</t>
+          <t>melko</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>best of luck</t>
+          <t>rather (degree)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>halpa</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>laulu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>song</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>saada</t>
+          <t>seurata</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>to get</t>
+          <t>to follow</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2026,396 +1982,440 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>viini</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>wine</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>lasku</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>what (time)</t>
+          <t>check, bill</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>kirjoittaa</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>pistoke</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>power plug</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Argentiina</t>
+          <t>kylmä</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>kuusisataa</t>
+          <t>baletti</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>ballet</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>keittiö</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tutustua</t>
+          <t>aasialainen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>to get to know, to meet</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>pala</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>piece (of)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>neljäsataa</t>
+          <t>maalata</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>to paint</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>undulaatti</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>you (plural)</t>
+          <t>parakeet</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>millainen</t>
+          <t>tyyni</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>what kind of</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Venäjä</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>Venäjä</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Unkari</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>what (time is it?)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>litra</t>
+          <t>neuloa</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>to knit</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>aasialainen</t>
+          <t>päivänjatko</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>continuation of a day</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>melko</t>
+          <t>taulu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rather (degree)</t>
+          <t>picture (anything to be put on a wall)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>aina</t>
+          <t>litra</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>always</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>halata</t>
+          <t>päivä</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>to hug</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>rauhassa</t>
+          <t>suolainen</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>some quiet</t>
+          <t>salty, savory</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>pala</t>
+          <t>ostaa</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>piece (of)</t>
+          <t>to buy</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ostaa</t>
+          <t>joki</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>to buy</t>
+          <t>river</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr"/>
     </row>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr"/>
     </row>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr"/>
     </row>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D112" t="inlineStr"/>
     </row>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr"/>
     </row>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D131" t="inlineStr"/>
     </row>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D140" t="inlineStr"/>
     </row>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D147" t="inlineStr"/>
     </row>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr"/>
     </row>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D161" t="inlineStr"/>
     </row>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D163" t="inlineStr"/>
     </row>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D164" t="inlineStr"/>
     </row>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D180" t="inlineStr"/>
     </row>
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D193" t="inlineStr"/>
     </row>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D198" t="inlineStr"/>
     </row>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D201" t="inlineStr"/>
     </row>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr"/>
     </row>
@@ -4323,7 +4323,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D212" t="inlineStr"/>
     </row>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D220" t="inlineStr"/>
     </row>
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D223" t="inlineStr"/>
     </row>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D226" t="inlineStr"/>
     </row>
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D237" t="inlineStr"/>
     </row>
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D239" t="inlineStr"/>
     </row>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D248" t="inlineStr"/>
     </row>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D249" t="inlineStr"/>
     </row>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D250" t="inlineStr"/>
     </row>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D252" t="inlineStr"/>
     </row>
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D253" t="inlineStr"/>
     </row>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D255" t="inlineStr"/>
     </row>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D257" t="inlineStr"/>
     </row>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D259" t="inlineStr"/>
     </row>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D269" t="inlineStr"/>
     </row>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D273" t="inlineStr"/>
     </row>
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D275" t="inlineStr"/>
     </row>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D277" t="inlineStr"/>
     </row>
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D279" t="inlineStr"/>
     </row>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D282" t="inlineStr"/>
     </row>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D288" t="inlineStr"/>
     </row>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D291" t="inlineStr"/>
     </row>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D293" t="inlineStr"/>
     </row>
@@ -6051,7 +6051,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D294" t="inlineStr"/>
     </row>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr"/>
     </row>
@@ -6103,7 +6103,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D299" t="inlineStr"/>
     </row>
@@ -6159,7 +6159,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D301" t="inlineStr"/>
     </row>
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D302" t="inlineStr"/>
     </row>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D304" t="inlineStr"/>
     </row>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D309" t="inlineStr"/>
     </row>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D319" t="inlineStr"/>
     </row>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D322" t="inlineStr"/>
     </row>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D328" t="inlineStr"/>
     </row>
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D331" t="inlineStr"/>
     </row>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D336" t="inlineStr"/>
     </row>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D337" t="inlineStr"/>
     </row>
@@ -6879,7 +6879,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D340" t="inlineStr"/>
     </row>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D342" t="inlineStr"/>
     </row>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D343" t="inlineStr"/>
     </row>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D345" t="inlineStr"/>
     </row>
@@ -7023,7 +7023,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D348" t="inlineStr"/>
     </row>
@@ -7079,7 +7079,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D350" t="inlineStr"/>
     </row>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D356" t="inlineStr"/>
     </row>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D357" t="inlineStr"/>
     </row>
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D358" t="inlineStr"/>
     </row>
@@ -7263,7 +7263,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D362" t="inlineStr"/>
     </row>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D370" t="inlineStr"/>
     </row>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D372" t="inlineStr"/>
     </row>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D373" t="inlineStr"/>
     </row>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D376" t="inlineStr"/>
     </row>
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D379" t="inlineStr"/>
     </row>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D382" t="inlineStr"/>
     </row>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D387" t="inlineStr"/>
     </row>
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D389" t="inlineStr"/>
     </row>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D392" t="inlineStr"/>
     </row>
@@ -7903,7 +7903,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D393" t="inlineStr"/>
     </row>
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D394" t="inlineStr"/>
     </row>
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D396" t="inlineStr"/>
     </row>
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D402" t="inlineStr"/>
     </row>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D403" t="inlineStr"/>
     </row>
@@ -8103,7 +8103,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D409" t="inlineStr"/>
     </row>
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D410" t="inlineStr"/>
     </row>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D422" t="inlineStr"/>
     </row>
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D429" t="inlineStr"/>
     </row>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D432" t="inlineStr"/>
     </row>
@@ -8663,7 +8663,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D434" t="inlineStr"/>
     </row>
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D437" t="inlineStr"/>
     </row>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D439" t="inlineStr"/>
     </row>
@@ -8791,7 +8791,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D440" t="inlineStr"/>
     </row>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D441" t="inlineStr"/>
     </row>
@@ -8823,7 +8823,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D443" t="inlineStr"/>
     </row>
@@ -8859,7 +8859,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D446" t="inlineStr"/>
     </row>
@@ -8915,7 +8915,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11795,7 +11795,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D656" t="inlineStr"/>
     </row>
@@ -13111,7 +13111,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D657" t="inlineStr"/>
     </row>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D659" t="inlineStr"/>
     </row>
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D661" t="inlineStr"/>
     </row>
@@ -13199,7 +13199,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D662" t="inlineStr"/>
     </row>
@@ -13215,7 +13215,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D663" t="inlineStr"/>
     </row>
@@ -13231,7 +13231,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D664" t="inlineStr"/>
     </row>
@@ -13247,7 +13247,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D666" t="inlineStr"/>
     </row>
@@ -13283,7 +13283,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D667" t="inlineStr"/>
     </row>
@@ -13299,7 +13299,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D668" t="inlineStr"/>
     </row>
@@ -13315,7 +13315,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D669" t="inlineStr"/>
     </row>
@@ -13331,7 +13331,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D670" t="inlineStr"/>
     </row>
@@ -13347,7 +13347,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D672" t="inlineStr"/>
     </row>
@@ -13383,7 +13383,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D673" t="inlineStr"/>
     </row>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D674" t="inlineStr"/>
     </row>
@@ -13415,7 +13415,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D675" t="inlineStr"/>
     </row>
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D676" t="inlineStr"/>
     </row>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D680" t="inlineStr"/>
     </row>
@@ -13523,7 +13523,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D684" t="inlineStr"/>
     </row>
@@ -13599,7 +13599,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D686" t="inlineStr"/>
     </row>
@@ -13635,7 +13635,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D687" t="inlineStr"/>
     </row>
@@ -13651,7 +13651,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D689" t="inlineStr"/>
     </row>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D690" t="inlineStr"/>
     </row>
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D691" t="inlineStr"/>
     </row>
@@ -13719,7 +13719,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D693" t="inlineStr"/>
     </row>
@@ -13755,7 +13755,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D694" t="inlineStr"/>
     </row>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D696" t="inlineStr"/>
     </row>
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D697" t="inlineStr"/>
     </row>
@@ -13823,7 +13823,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D698" t="inlineStr"/>
     </row>
@@ -13839,7 +13839,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D699" t="inlineStr"/>
     </row>
@@ -13855,7 +13855,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D701" t="inlineStr"/>
     </row>
@@ -13891,7 +13891,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D702" t="inlineStr"/>
     </row>
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D704" t="inlineStr"/>
     </row>
@@ -13943,7 +13943,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D707" t="inlineStr"/>
     </row>
@@ -13999,7 +13999,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D708" t="inlineStr"/>
     </row>
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D709" t="inlineStr"/>
     </row>
@@ -14031,7 +14031,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D710" t="inlineStr"/>
     </row>
@@ -14047,7 +14047,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D711" t="inlineStr"/>
     </row>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D712" t="inlineStr"/>
     </row>
@@ -14079,7 +14079,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D713" t="inlineStr"/>
     </row>
@@ -14095,7 +14095,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D714" t="inlineStr"/>
     </row>
@@ -14111,7 +14111,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D717" t="inlineStr"/>
     </row>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D718" t="inlineStr"/>
     </row>
@@ -14183,7 +14183,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D719" t="inlineStr"/>
     </row>
@@ -14199,7 +14199,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D720" t="inlineStr"/>
     </row>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D721" t="inlineStr"/>
     </row>
@@ -14231,7 +14231,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D722" t="inlineStr"/>
     </row>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D723" t="inlineStr"/>
     </row>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D724" t="inlineStr"/>
     </row>
@@ -14279,7 +14279,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D726" t="inlineStr"/>
     </row>
@@ -14315,7 +14315,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D727" t="inlineStr"/>
     </row>
@@ -14331,7 +14331,7 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D729" t="inlineStr"/>
     </row>
@@ -14367,7 +14367,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D730" t="inlineStr"/>
     </row>
@@ -14383,7 +14383,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D731" t="inlineStr"/>
     </row>
@@ -14399,7 +14399,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D732" t="inlineStr"/>
     </row>
@@ -14415,7 +14415,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D733" t="inlineStr"/>
     </row>
@@ -14431,7 +14431,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D735" t="inlineStr"/>
     </row>
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D737" t="inlineStr"/>
     </row>
@@ -14503,7 +14503,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D738" t="inlineStr"/>
     </row>
@@ -14519,7 +14519,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D739" t="inlineStr"/>
     </row>
@@ -14535,7 +14535,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D740" t="inlineStr"/>
     </row>
@@ -14551,7 +14551,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D742" t="inlineStr"/>
     </row>
@@ -14587,7 +14587,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D745" t="inlineStr"/>
     </row>
@@ -14643,7 +14643,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D747" t="inlineStr"/>
     </row>
@@ -14679,7 +14679,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D749" t="inlineStr"/>
     </row>
@@ -14715,7 +14715,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D750" t="inlineStr"/>
     </row>
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D751" t="inlineStr"/>
     </row>
@@ -14747,7 +14747,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D753" t="inlineStr"/>
     </row>
@@ -14783,7 +14783,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D755" t="inlineStr"/>
     </row>
@@ -14819,7 +14819,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D756" t="inlineStr"/>
     </row>
@@ -14835,7 +14835,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D757" t="inlineStr"/>
     </row>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D758" t="inlineStr"/>
     </row>
@@ -14867,7 +14867,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D759" t="inlineStr"/>
     </row>
@@ -14883,7 +14883,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D760" t="inlineStr"/>
     </row>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D761" t="inlineStr"/>
     </row>
@@ -14915,7 +14915,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D762" t="inlineStr"/>
     </row>
@@ -14931,7 +14931,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D763" t="inlineStr"/>
     </row>
@@ -14947,7 +14947,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D764" t="inlineStr"/>
     </row>
@@ -14963,7 +14963,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D766" t="inlineStr"/>
     </row>
@@ -14999,7 +14999,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D768" t="inlineStr"/>
     </row>
@@ -15035,7 +15035,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D769" t="inlineStr"/>
     </row>
@@ -15051,7 +15051,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D770" t="inlineStr"/>
     </row>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D771" t="inlineStr"/>
     </row>
@@ -15083,7 +15083,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D774" t="inlineStr"/>
     </row>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D775" t="inlineStr"/>
     </row>
@@ -15155,7 +15155,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D780" t="inlineStr"/>
     </row>
@@ -15251,7 +15251,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D781" t="inlineStr"/>
     </row>

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,48 +498,48 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>kuuma</t>
+          <t>ketä</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>whom (partitive)</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>-1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>pirtelö</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>milkshake</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>-1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ruotsalainen</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Swedish person</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -547,43 +547,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nähdä</t>
+          <t>rauha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>to see</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pesäpallo</t>
+          <t>suklaa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nestball</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -594,56 +594,56 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rauha</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>to think (over)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>suklaa</t>
+          <t>nähdä</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>to see</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jääkiekko</t>
+          <t>ruotsalainen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ice hockey</t>
+          <t>Swedish person</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -654,88 +654,84 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>taulu</t>
+          <t>liian</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>picture (anything to be put on a wall)</t>
+          <t>too (degree)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>kuuma</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>to think (over)</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>liian</t>
+          <t>taulu</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>too (degree)</t>
+          <t>picture (anything to be put on a wall)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>onnellinen</t>
+          <t>me</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>we</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kunto</t>
+          <t>pesäpallo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>nestball</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -750,12 +746,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>jääkiekko</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>ice hockey</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -770,28 +766,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>onnellinen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>kunto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>condition</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -799,55 +799,55 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>usein</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tanskalainen</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Danish person</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>soittaa</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>to play (an instrument)</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -862,32 +862,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hetki</t>
+          <t>usein</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>moment (of time)</t>
+          <t>often</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>tanskalainen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>Danish person</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -902,12 +898,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ilta</t>
+          <t>soittaa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>to play (an instrument)</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -915,19 +911,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>appelsiini</t>
+          <t>hetki</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>orange (fruit)</t>
+          <t>moment (of time)</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -942,12 +938,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kiisseli</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kissel</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -962,12 +958,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>piirtää</t>
+          <t>ilta</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>to draw</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -975,19 +971,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>terassi</t>
+          <t>appelsiini</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>terrace</t>
+          <t>orange (fruit)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1002,12 +998,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lippu</t>
+          <t>piirtää</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ticket, flag</t>
+          <t>to draw</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1015,19 +1011,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>harrastaa</t>
+          <t>terassi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>to have (as) a hobby</t>
+          <t>terrace</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1035,35 +1031,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aina</t>
+          <t>lippu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>always</t>
+          <t>ticket, flag</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>harrastaa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>to have (as) a hobby</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1071,19 +1071,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>keskellä</t>
+          <t>aina</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>in the middle of</t>
+          <t>always</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1094,12 +1094,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>maistaa</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>to taste, to try (a dish)</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>shamaani</t>
+          <t>halata</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>shaman</t>
+          <t>to hug</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1183,19 +1183,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>halata</t>
+          <t>tyttö</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>to hug</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1203,131 +1203,123 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>naimisissa</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>tyttö</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>saada</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>to get</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pirtelö</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>milkshake</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Suomi</t>
+          <t>neljäsataa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>saada</t>
+          <t>olut</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>to get</t>
+          <t>beer</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1335,55 +1327,55 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>nälkä</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>hunger</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rooma</t>
+          <t>te</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>you (plural)</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>paljon onnea</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>best of luck</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1394,48 +1386,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>neljäsataa</t>
+          <t>tori</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>market square</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>olut</t>
+          <t>lounas</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>beer</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1450,12 +1442,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>nälkä</t>
+          <t>pöllö</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>hunger</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1470,44 +1462,52 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>silta</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>you (plural)</t>
+          <t>bridge</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>karaoke</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>karaoke</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>tori</t>
+          <t>lasit</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>market square</t>
+          <t>(eye) glasses</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1522,28 +1522,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>halpa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>lounas</t>
+          <t>lasku</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>check, bill</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1558,12 +1562,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>pöllö</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1578,12 +1582,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>tee</t>
+          <t>pistoke</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>tea</t>
+          <t>power plug</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1598,12 +1602,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>silta</t>
+          <t>kylmä</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1611,19 +1615,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>karaoke</t>
+          <t>maalata</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>karaoke</t>
+          <t>to paint</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1631,19 +1635,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lasit</t>
+          <t>undulaatti</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(eye) glasses</t>
+          <t>parakeet</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1658,12 +1662,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>melko</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>rather (degree)</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1674,32 +1678,28 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>halpa</t>
+          <t>Venäjä</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>lasku</t>
+          <t>joki</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>check, bill</t>
+          <t>river</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1714,12 +1714,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1727,19 +1727,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>pistoke</t>
+          <t>nämä</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>power plug</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1747,39 +1747,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>kylmä</t>
+          <t>valmis</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>aasialainen</t>
+          <t>vihainen</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1794,28 +1790,32 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>pala</t>
+          <t>oranssi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>piece (of)</t>
+          <t>orange (color)</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>maalata</t>
+          <t>laulaja</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>to paint</t>
+          <t>singer</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1823,19 +1823,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>undulaatti</t>
+          <t>puoli</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>parakeet</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1850,60 +1850,72 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>elokuva</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Venäjä</t>
+          <t>huomata</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>to notice</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>paljonko</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>what (time is it?)</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>päivänjatko</t>
+          <t>sisu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>continuation of a day</t>
+          <t>true grit</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1918,32 +1930,28 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ostaa</t>
+          <t>ohi</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>to buy</t>
+          <t>over, past</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>joki</t>
+          <t>äiti</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1958,12 +1966,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>sovittaa</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>to try on</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1971,19 +1979,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>nämä</t>
+          <t>komea</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1998,48 +2006,48 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>valmis</t>
+          <t>ystävä</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>vihainen</t>
+          <t>yhdessä</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>together</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>oranssi</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>orange (color)</t>
+          <t>to have stopped (clock, watch)</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2047,19 +2055,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>laulaja</t>
+          <t>etsiä</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>singer</t>
+          <t>to look for, to search</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2067,19 +2075,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>potkaista</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>to kick</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2087,19 +2095,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>puoli</t>
+          <t>uida</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>to swim</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2107,19 +2115,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>elokuva</t>
+          <t>ihailla</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>movie</t>
+          <t>to admire</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2127,19 +2135,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>huomata</t>
+          <t>kala</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>to notice</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2147,19 +2155,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>pitkä</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2167,19 +2175,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sisu</t>
+          <t>toivoa</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>true grit</t>
+          <t>to hope, to wish</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2187,35 +2195,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ohi</t>
+          <t>eläin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>over, past</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>äiti</t>
+          <t>leijona</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>lion</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2230,12 +2242,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sovittaa</t>
+          <t>pehmeä</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>to try on</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2243,39 +2255,35 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>komea</t>
+          <t>onneksi</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>good thing, luckily, thankfully</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ystävä</t>
+          <t>makea</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>sweet (taste)</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2283,35 +2291,39 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>yhdessä</t>
+          <t>myrkyllinen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>poisonous, venomous</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>hyvä</t>
+          <t>outo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>good (adjective)</t>
+          <t>strange</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2326,12 +2338,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>pohjoinen</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>to have stopped (clock, watch)</t>
+          <t>northern</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2339,19 +2351,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>etsiä</t>
+          <t>herkku</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>to look for, to search</t>
+          <t>delicacy, treat</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2359,39 +2371,35 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>yksitoista</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>eleven</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>peruna</t>
+          <t>prinsessa</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>potato</t>
+          <t>princess</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2406,12 +2414,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>uida</t>
+          <t>katsella</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>to swim</t>
+          <t>to watch</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2426,12 +2434,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ihailla</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>to admire</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2439,19 +2447,19 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>kala</t>
+          <t>Sveitsi</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2466,12 +2474,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>pitkä</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2479,19 +2487,19 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>toivoa</t>
+          <t>taivas</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>to hope, to wish</t>
+          <t>sky</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2499,19 +2507,19 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>eläin</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2526,12 +2534,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>leijona</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>lion</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2546,12 +2554,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>pehmeä</t>
+          <t>venäläinen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>Russian person</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2559,35 +2567,39 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>onneksi</t>
+          <t>makkara</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>good thing, luckily, thankfully</t>
+          <t>sausage</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>makea</t>
+          <t>leivos</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>sweet (taste)</t>
+          <t>pastry</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2595,19 +2607,19 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>myrkyllinen</t>
+          <t>myydä</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>poisonous, venomous</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2615,19 +2627,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sovellus</t>
+          <t>vessa</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>restroom, toilet</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2642,12 +2654,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>yliopisto</t>
+          <t>historia</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2662,12 +2674,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>museo</t>
+          <t>eväät</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>museum</t>
+          <t>packed meal</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2682,12 +2694,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sinappi</t>
+          <t>lehmä</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>mustard</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2702,12 +2714,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>outo</t>
+          <t>laulaa</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>strange</t>
+          <t>to sing</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2715,19 +2727,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>pohjoinen</t>
+          <t>lapsi</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>northern</t>
+          <t>child</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2735,19 +2747,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>herkku</t>
+          <t>professori</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>delicacy, treat</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2762,12 +2774,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>yksitoista</t>
+          <t>ovat</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>eleven</t>
+          <t>(they) are</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2778,12 +2790,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>prinsessa</t>
+          <t>ruskea</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>princess</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2791,19 +2803,19 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>katsella</t>
+          <t>orava</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>to watch</t>
+          <t>squirrel</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2811,19 +2823,19 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2838,12 +2850,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sveitsi</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2858,12 +2870,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2871,19 +2883,19 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>taivas</t>
+          <t>saari</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sky</t>
+          <t>island</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2898,72 +2910,60 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>todella</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>really (adverb of degree)</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>lähellä</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>near</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>venäläinen</t>
+          <t>oletko</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Russian person</t>
+          <t>are (you singular in question)</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>makkara</t>
+          <t>kravatti</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>sausage</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2978,32 +2978,28 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>leivos</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>where</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>myydä</t>
+          <t>passi</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>passport</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3011,19 +3007,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vessa</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>restroom, toilet</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3038,12 +3034,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>lahjakas</t>
+          <t>sokeri</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3051,19 +3047,19 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>monumentti</t>
+          <t>piano</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>monument</t>
+          <t>piano</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3078,28 +3074,32 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>hänellä</t>
+          <t>nousta ylös</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>s/he has</t>
+          <t>to get up</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>historia</t>
+          <t>pyöreä</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3107,19 +3107,19 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>eväät</t>
+          <t>vihreä</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>packed meal</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3127,19 +3127,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>lehmä</t>
+          <t>housut</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3154,32 +3154,28 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>laulaa</t>
+          <t>enemmän</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>to sing</t>
+          <t>more (not enough)</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lapsi</t>
+          <t>vahva</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3187,39 +3183,35 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>professori</t>
+          <t>kaukana</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>far away</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>tiskata</t>
+          <t>lasi</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>to do the dishes</t>
+          <t>glass (of water)</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3227,19 +3219,19 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ovat</t>
+          <t>uudelleen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(they) are</t>
+          <t>again (periodically)</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3250,12 +3242,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ruskea</t>
+          <t>haarukka</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>fork</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3263,35 +3255,39 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>krokotiili</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>or (inclusive)</t>
+          <t>crocodile</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>orava</t>
+          <t>maa</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>squirrel</t>
+          <t>soil, ground</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3306,92 +3302,76 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>yhtään</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>any (at all)</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>ketkä</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Canadian (adjective)</t>
+          <t>who (are the people)</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>jossain</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>olet</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>(you singular) are</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>0</v>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>saari</t>
+          <t>valkoinen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>island</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3399,35 +3379,39 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>todella</t>
+          <t>kaunis</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>really (adverb of degree)</t>
+          <t>beautiful</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>lähellä</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3438,80 +3422,88 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>miksi</t>
+          <t>auttaa</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>to help</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>oletko</t>
+          <t>hirvi</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>are (you singular in question)</t>
+          <t>moose</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>kravatti</t>
+          <t>yksi</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>one</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>lause</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>passi</t>
+          <t>haistella</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>passport</t>
+          <t>to sniff, to smell at</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3519,19 +3511,19 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3546,12 +3538,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>sokeri</t>
+          <t>saamelainen</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>Sámi person</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3566,12 +3558,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>piano</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>piano</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3586,12 +3578,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>nousta ylös</t>
+          <t>hattu</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>to get up</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3599,19 +3591,19 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>pyöreä</t>
+          <t>peli</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3619,75 +3611,71 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>vihreä</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>housut</t>
+          <t>pulassa</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>in trouble</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>0</v>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>enemmän</t>
+          <t>sininen</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>more (not enough)</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>vahva</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3695,19 +3683,19 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>kaukana</t>
+          <t>yhdeksän</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>far away</t>
+          <t>nine</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3718,12 +3706,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>lasi</t>
+          <t>haluta</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>glass (of water)</t>
+          <t>to want</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3731,19 +3719,19 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>uudelleen</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>again (periodically)</t>
+          <t>and</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3754,32 +3742,28 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>haarukka</t>
+          <t>myös</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>fork</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>krokotiili</t>
+          <t>siivota</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>crocodile</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3787,19 +3771,19 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>maa</t>
+          <t>haista</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>soil, ground</t>
+          <t>to smell (badly)</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3807,51 +3791,59 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>yhtään</t>
+          <t>lukea</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>any (at all)</t>
+          <t>to read</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>0</v>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ketkä</t>
+          <t>kukka</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>who (are the people)</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>0</v>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>jossain</t>
+          <t>melkein</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3862,12 +3854,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>olet</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>(you singular) are</t>
+          <t>quickly (adverb)</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3878,12 +3870,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>valkoinen</t>
+          <t>televisio</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>television</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3891,19 +3883,19 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3914,12 +3906,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>kaunis</t>
+          <t>suuri</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>beautiful</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3934,48 +3926,48 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>auttaa</t>
+          <t>miten</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>to help</t>
+          <t>how (+ usein)</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>hirvi</t>
+          <t>pestä</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>moose</t>
+          <t>to wash</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3983,19 +3975,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>yksi</t>
+          <t>tuossa</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>right there</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4006,12 +3998,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>lause</t>
+          <t>lompakko</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>sentence</t>
+          <t>wallet</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4026,52 +4018,44 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>haistella</t>
+          <t>koti ikävä</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>to sniff, to smell at</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>seitsemän</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>saamelainen</t>
+          <t>mikrofoni</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sámi person</t>
+          <t>microphone</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4086,12 +4070,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>voi</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>butter</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4106,12 +4090,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ei</t>
+          <t>seinässä</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>plugged in</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4122,12 +4106,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>hattu</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4142,12 +4126,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>peli</t>
+          <t>puhua</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>to speak (a language, words)</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4155,19 +4139,19 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>poni</t>
+          <t>takki</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>pony</t>
+          <t>coat, jacket</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4182,12 +4166,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>joka</t>
+          <t>vain</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>who (relative)</t>
+          <t>only</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4198,44 +4182,52 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>nalle</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>teddy bear</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>pulassa</t>
+          <t>venäjä</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>in trouble</t>
+          <t>Russian (language)</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>0</v>
       </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sininen</t>
+          <t>liha</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4243,19 +4235,19 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4263,119 +4255,135 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>yhdeksän</t>
+          <t>nimi</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>0</v>
       </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>haluta</t>
+          <t>olla ostoksilla</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>to want</t>
+          <t>to be shopping</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>0</v>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>kai</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>maybe, I guess</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>Tanska</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>hän</t>
+          <t>eksyä</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>s/he</t>
+          <t>to get lost</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>0</v>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>myös</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>siivota</t>
+          <t>hamsteri</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>hamster</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -4383,19 +4391,19 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Pariisi</t>
+          <t>lamppu</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -4410,32 +4418,28 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>haista</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>to smell (badly)</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>0</v>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>lukea</t>
+          <t>kuoro</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>to read</t>
+          <t>choir</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4443,91 +4447,91 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>lämmin</t>
+          <t>kotona</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>at home</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>kukka</t>
+          <t>vai</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>or (exclusive)</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>melkein</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>quickly (adverb)</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>0</v>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>televisio</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>television</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -4535,35 +4539,39 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>hiljainen</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>quiet (adjective)</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>0</v>
       </c>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>suuri</t>
+          <t>sotkuinen</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>messy</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4578,12 +4586,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>varovainen</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>careful</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4591,35 +4599,39 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>miten</t>
+          <t>huono</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>how (+ usein)</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>pestä</t>
+          <t>söpö</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>to wash</t>
+          <t>cute</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -4627,35 +4639,39 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>tuossa</t>
+          <t>nuori</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>right there</t>
+          <t>young</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>0</v>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>lompakko</t>
+          <t>australialainen</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>wallet</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -4663,51 +4679,59 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>koti ikävä</t>
+          <t>painava</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>heavy</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>seitsemän</t>
+          <t>turvallinen</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>mikrofoni</t>
+          <t>tuhma</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>microphone</t>
+          <t>naughty</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -4715,19 +4739,19 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>voi</t>
+          <t>harmaa</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>butter</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -4735,35 +4759,39 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>seinässä</t>
+          <t>syvä</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>plugged in</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>täydellinen</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -4771,19 +4799,19 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>puhua</t>
+          <t>vakava</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>to speak (a language, words)</t>
+          <t>serious</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -4791,19 +4819,19 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>takki</t>
+          <t>punainen</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>coat, jacket</t>
+          <t>red</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -4811,35 +4839,39 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>vain</t>
+          <t>viisas</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>only</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="C232" t="n">
         <v>0</v>
       </c>
-      <c r="D232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>nalle</t>
+          <t>tyhjä</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>teddy bear</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -4847,19 +4879,19 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>venäjä</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Russian (language)</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -4867,19 +4899,19 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>liha</t>
+          <t>vaarallinen</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -4887,19 +4919,19 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -4914,12 +4946,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>nimi</t>
+          <t>kiltti</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>well-behaved</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -4927,35 +4959,39 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>olla ostoksilla</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>to be shopping</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
-      <c r="D238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>kitara</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>guitar</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4970,12 +5006,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>veitsi</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4983,19 +5019,19 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Tanska</t>
+          <t>Praha</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Prague</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5010,12 +5046,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>eksyä</t>
+          <t>kemia</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>to get lost</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -5023,19 +5059,19 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>Puola</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -5043,19 +5079,19 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>hamsteri</t>
+          <t>insinööri</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>hamster</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -5070,12 +5106,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>lamppu</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -5090,28 +5126,32 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>siili</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>hedgehog</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>0</v>
       </c>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>kuoro</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>choir</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -5126,44 +5166,52 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>kotona</t>
+          <t>vaari</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>at home</t>
+          <t>grandpa</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>0</v>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>vai</t>
+          <t>tarjoilija</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>or (exclusive)</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>0</v>
       </c>
-      <c r="D249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>grilli</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>grill</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -5171,19 +5219,19 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>huomen</t>
+          <t>lääkkeet</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>forenoon</t>
+          <t>meds, medicine, medications</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -5198,12 +5246,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>biisi</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>(pop, rock) song</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -5218,12 +5266,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>karanteeni</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>quarantine</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -5231,19 +5279,19 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>hiljainen</t>
+          <t>lintu</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>quiet (adjective)</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -5251,19 +5299,19 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>sotkuinen</t>
+          <t>talo</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>messy</t>
+          <t>house</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -5271,19 +5319,19 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>varovainen</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>careful</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -5291,19 +5339,19 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>huono</t>
+          <t>katu</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -5311,19 +5359,19 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>söpö</t>
+          <t>unkari</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>cute</t>
+          <t>Hungarian language</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -5331,19 +5379,19 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>nuori</t>
+          <t>bändi</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>band</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -5351,19 +5399,19 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>australialainen</t>
+          <t>järvi</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -5371,19 +5419,19 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>painava</t>
+          <t>veranta</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>heavy</t>
+          <t>veranda</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -5391,19 +5439,19 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>turvallinen</t>
+          <t>lusikka</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -5411,19 +5459,19 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>tuhma</t>
+          <t>korvapuusti</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>naughty</t>
+          <t>cinnamon roll</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -5431,19 +5479,19 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>harmaa</t>
+          <t>kirkko</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>church</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -5451,19 +5499,19 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>tuo</t>
+          <t>hotelli</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>that (adjective)</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -5471,19 +5519,19 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>tumma</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>dark</t>
+          <t>video</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -5491,19 +5539,19 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>syvä</t>
+          <t>lelu</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>deep</t>
+          <t>toy</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -5511,19 +5559,19 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>hidas</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>slow</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -5531,19 +5579,19 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>keltainen</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -5551,19 +5599,19 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>surullinen</t>
+          <t>ralli</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>rally (driving)</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -5571,19 +5619,19 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>täydellinen</t>
+          <t>omena</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -5591,19 +5639,19 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>vakava</t>
+          <t>uikkarit</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>serious</t>
+          <t>swimwear</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -5611,19 +5659,19 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>punainen</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -5631,19 +5679,19 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>nopea</t>
+          <t>yö</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>quick (adjective)</t>
+          <t>night</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -5651,19 +5699,19 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>viisas</t>
+          <t>jää</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>wise</t>
+          <t>ice</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -5671,19 +5719,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>leipä</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -5691,19 +5739,19 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>tyhjä</t>
+          <t>japani</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Japanese language</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -5711,19 +5759,19 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>huone</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>room</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -5731,19 +5779,19 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>vaarallinen</t>
+          <t>rakennus</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>building</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -5751,19 +5799,19 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>Saksa</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -5771,19 +5819,19 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>kiltti</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>well-behaved</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -5791,19 +5839,19 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>sieni</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>mushroom</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -5818,12 +5866,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>murre</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -5838,12 +5886,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>kitara</t>
+          <t>suola</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>guitar</t>
+          <t>salt</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -5858,12 +5906,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>veitsi</t>
+          <t>seinä</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>wall</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -5878,12 +5926,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Praha</t>
+          <t>munkki</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>jelly doughnut</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -5898,12 +5946,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>kemia</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -5918,12 +5966,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Puola</t>
+          <t>keskusta</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>city center</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -5938,12 +5986,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>insinööri</t>
+          <t>virolainen</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>Estonian person</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -5958,12 +6006,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>kamera</t>
+          <t>morsian</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>bride</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -5978,12 +6026,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -5998,12 +6046,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>siili</t>
+          <t>kampa</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>hedgehog</t>
+          <t>comb</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -6018,12 +6066,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>metsä</t>
+          <t>koti</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>home</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -6038,12 +6086,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -6058,12 +6106,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>vaari</t>
+          <t>onni</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>grandpa</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -6078,12 +6126,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>tarjoilija</t>
+          <t>raha</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>money</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -6098,12 +6146,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>grilli</t>
+          <t>helmi</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>grill</t>
+          <t>pearl</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -6118,12 +6166,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>lääkkeet</t>
+          <t>väri</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>meds, medicine, medications</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -6138,12 +6186,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>deodorantti</t>
+          <t>violetti</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>deodorant</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -6158,12 +6206,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>biisi</t>
+          <t>mauste</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>(pop, rock) song</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -6178,12 +6226,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>karanteeni</t>
+          <t>lumi</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>quarantine</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -6198,12 +6246,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>lintu</t>
+          <t>kameli</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>bird</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -6218,12 +6266,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>talo</t>
+          <t>jalkapallo</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>soccer, football</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -6238,12 +6286,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>sandaali</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>sandal</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -6258,12 +6306,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>katu</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -6278,12 +6326,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>unkari</t>
+          <t>piha</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Hungarian language</t>
+          <t>yard</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -6298,12 +6346,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>bändi</t>
+          <t>puro</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>band</t>
+          <t>creek, brook, stream</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -6318,12 +6366,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>järvi</t>
+          <t>Ranska</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -6338,12 +6386,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>veranta</t>
+          <t>riisi</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>veranda</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -6358,12 +6406,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>lusikka</t>
+          <t>kinuski</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>kinusk</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -6378,32 +6426,28 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>korvapuusti</t>
+          <t>harvoin</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>cinnamon roll</t>
+          <t>seldom</t>
         </is>
       </c>
       <c r="C311" t="n">
         <v>0</v>
       </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>kirkko</t>
+          <t>lainata</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>to borrow, to loan</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -6411,139 +6455,115 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>hotelli</t>
+          <t>kahdeksan</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>0</v>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C314" t="n">
         <v>0</v>
       </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>pokeri</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>poker</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>0</v>
       </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>lelu</t>
+          <t>minkävärinen</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>what color</t>
         </is>
       </c>
       <c r="C316" t="n">
         <v>0</v>
       </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>kymmenen</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>0</v>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>kulta</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>darling</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ralli</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>rally (driving)</t>
+          <t>to fit</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -6551,19 +6571,19 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>tulostin</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>printer</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -6571,39 +6591,35 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>omena</t>
+          <t>muutama</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>a few</t>
         </is>
       </c>
       <c r="C321" t="n">
         <v>0</v>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>uikkarit</t>
+          <t>kuulua</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>swimwear</t>
+          <t>to be heard</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -6611,19 +6627,19 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>aksentti</t>
+          <t>norjalainen</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>Norwegian person</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -6638,12 +6654,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>nauraa</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -6651,79 +6667,67 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>yö</t>
+          <t>joka</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>every (determiner)</t>
         </is>
       </c>
       <c r="C325" t="n">
         <v>0</v>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>kieli</t>
+          <t>voi ei</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>oh no</t>
         </is>
       </c>
       <c r="C326" t="n">
         <v>0</v>
       </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jää</t>
+          <t>huhuu</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>hoot (owl sound)</t>
         </is>
       </c>
       <c r="C327" t="n">
         <v>0</v>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>leipä</t>
+          <t>varoa</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -6731,59 +6735,51 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>japani</t>
+          <t>ihan</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Japanese language</t>
+          <t>pretty/rather (good)</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>0</v>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>huone</t>
+          <t>jossa</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>in which</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>0</v>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>rakennus</t>
+          <t>tehdä</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>to do, to make</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -6791,179 +6787,147 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>pulla</t>
+          <t>ehkä</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>pulla</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="C332" t="n">
         <v>0</v>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Saksa</t>
+          <t>neljä</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C333" t="n">
         <v>0</v>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>nam</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>yum</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>0</v>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>jee</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>yay</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>0</v>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>murre</t>
+          <t>niin</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>so (degree)</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>0</v>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>suola</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>salt</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="C337" t="n">
         <v>0</v>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>seinä</t>
+          <t>mikä</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>wall</t>
+          <t>what (object)</t>
         </is>
       </c>
       <c r="C338" t="n">
         <v>0</v>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>munkki</t>
+          <t>ei mitään</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>jelly doughnut</t>
+          <t>nothing (special)</t>
         </is>
       </c>
       <c r="C339" t="n">
         <v>0</v>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>ajatella</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>to think (involunteraly)</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -6971,79 +6935,67 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Ruotsi</t>
+          <t>hys</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>hush</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>0</v>
       </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>keskusta</t>
+          <t>jolla</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>city center</t>
+          <t>who/which (has) (relative)</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>0</v>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>virolainen</t>
+          <t>mur</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Estonian person</t>
+          <t>growl (bear sound)</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>0</v>
       </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>morsian</t>
+          <t>pitää</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>bride</t>
+          <t>needs to be</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -7051,99 +7003,83 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>they</t>
         </is>
       </c>
       <c r="C345" t="n">
         <v>0</v>
       </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>joo</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>glögi</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>0</v>
       </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>kampa</t>
+          <t>joku</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>comb</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>0</v>
       </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>koti</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>ouch</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>0</v>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>juosta</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -7151,79 +7087,67 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>onni</t>
+          <t>anteeksi</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>excuse me</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>0</v>
       </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>raha</t>
+          <t>moni</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>many</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>0</v>
       </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>helmi</t>
+          <t>kolmesataa</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>pearl</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C352" t="n">
         <v>0</v>
       </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>väri</t>
+          <t>omistaa</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>to own, to have property</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -7231,39 +7155,35 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>hiiri</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C354" t="n">
         <v>0</v>
       </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>violetti</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -7271,19 +7191,19 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>mauste</t>
+          <t>svengata</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>to groove, to swing</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -7291,19 +7211,19 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>lumi</t>
+          <t>kasvaa</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>to grow</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -7311,43 +7231,39 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>kameli</t>
+          <t>tosi</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>really (adverb of degree, spoken language)</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>0</v>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>jalkapallo</t>
+          <t>deodorantti</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>soccer, football</t>
+          <t>deodorant</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7358,16 +7274,16 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>pitsa</t>
+          <t>lehti</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -7378,16 +7294,16 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>juusto</t>
+          <t>sovellus</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>cheese</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7398,56 +7314,52 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>lehti</t>
+          <t>hänellä</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>s/he has</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>sandaali</t>
+          <t>hyvä</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>sandal</t>
+          <t>good (adjective)</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>pulla</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>pulla</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7458,16 +7370,16 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>piha</t>
+          <t>metsä</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>yard</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7478,16 +7390,16 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>puro</t>
+          <t>Pariisi</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>creek, brook, stream</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7498,16 +7410,16 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Ranska</t>
+          <t>Rooma</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7518,460 +7430,480 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>riisi</t>
+          <t>entä</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>how about</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>kinuski</t>
+          <t>pala</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>kinusk</t>
+          <t>piece (of)</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>harvoin</t>
+          <t>melko</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>seldom</t>
+          <t>rather (degree)</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>lainata</t>
+          <t>pitsa</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>to borrow, to loan</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>kahdeksan</t>
+          <t>miksi</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>why</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>surullinen</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
-      </c>
-      <c r="D373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>tanssia</t>
+          <t>kieli</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>to dance</t>
+          <t>language</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>minkävärinen</t>
+          <t>monumentti</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>what color</t>
+          <t>monument</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
-      </c>
-      <c r="D376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>kymmenen</t>
+          <t>kiisseli</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>kissel</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
-      </c>
-      <c r="D377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>kulta</t>
+          <t>tumma</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>darling</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
-      </c>
-      <c r="D378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>kilo</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>to fit</t>
+          <t>kilogram</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>juusto</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>cheese</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>muutama</t>
+          <t>pelata</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>a few</t>
+          <t>to play (a game)</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
-      </c>
-      <c r="D381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>kuulua</t>
+          <t>paljonko</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>to be heard</t>
+          <t>what (time is it?)</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>norjalainen</t>
+          <t>tiskata</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Norwegian person</t>
+          <t>to do the dishes</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>entä</t>
+          <t>keltainen</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>how about</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
-      </c>
-      <c r="D384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>nauraa</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>glögi</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>joka</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>every (determiner)</t>
+          <t>Canadian (adjective)</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
-      </c>
-      <c r="D386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>viisi</t>
+          <t>nopea</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>quick (adjective)</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
-      </c>
-      <c r="D387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>voi ei</t>
+          <t>ihahaa</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>oh no</t>
+          <t>neigh (horse sound)</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>huhuu</t>
+          <t>kot kot</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>hoot (owl sound)</t>
+          <t>cluck cluck (rooster sound)</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>varoa</t>
+          <t>poni</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>pony</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>pelata</t>
+          <t>lahjakas</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>to play (a game)</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ketä</t>
+          <t>Ruotsi</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>whom (partitive)</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
-      </c>
-      <c r="D392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>elää</t>
+          <t>potkaista</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>to live (as animal)</t>
+          <t>to kick</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7982,584 +7914,644 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>monta</t>
+          <t>naimisissa</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>many (partitive)</t>
+          <t>married</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
-      </c>
-      <c r="D394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ihan</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>pretty/rather (good)</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>kilo</t>
+          <t>maistaa</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>kilogram</t>
+          <t>to taste, to try (a dish)</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
-      </c>
-      <c r="D396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>jossa</t>
+          <t>juotava</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>in which</t>
+          <t>drinkable</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>olemme</t>
+          <t>huomen</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>(we) are</t>
+          <t>forenoon</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
-      </c>
-      <c r="D398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>tehdä</t>
+          <t>peruna</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>to do, to make</t>
+          <t>potato</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ehkä</t>
+          <t>tee</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>tea</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
-      </c>
-      <c r="D400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>neljä</t>
+          <t>hiiri</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>nam</t>
+          <t>joka</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>yum</t>
+          <t>who (relative)</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>jee</t>
+          <t>tulostin</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>yay</t>
+          <t>printer</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
-      </c>
-      <c r="D403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>niin</t>
+          <t>kamera</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>so (degree)</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
-      </c>
-      <c r="D404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>yliopisto</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
-      </c>
-      <c r="D405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>mikä</t>
+          <t>aasialainen</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>what (object)</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
-      </c>
-      <c r="D406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ei mitään</t>
+          <t>ostaa</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>nothing (special)</t>
+          <t>to buy</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
-      </c>
-      <c r="D407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ajatella</t>
+          <t>pokeri</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>to think (involunteraly)</t>
+          <t>poker</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>hys</t>
+          <t>hän</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>hush</t>
+          <t>s/he</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>jolla</t>
+          <t>Suomi</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>who/which (has) (relative)</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
-      </c>
-      <c r="D410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>mur</t>
+          <t>sieni</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>growl (bear sound)</t>
+          <t>mushroom</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
-      </c>
-      <c r="D411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>juotava</t>
+          <t>keskellä</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>drinkable</t>
+          <t>in the middle of</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>pitää</t>
+          <t>tai</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>needs to be</t>
+          <t>or (inclusive)</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>päällä</t>
+          <t>viisi</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>(to be) on</t>
+          <t>five</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>on</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>(s/he, it) is</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>joo</t>
+          <t>sinappi</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
-      </c>
-      <c r="D416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>teillä</t>
+          <t>museo</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>you (plural) have</t>
+          <t>museum</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
-      </c>
-      <c r="D417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>joku</t>
+          <t>olemme</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>(we) are</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>aksentti</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ouch</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
-      </c>
-      <c r="D419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ihahaa</t>
+          <t>päällä</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>neigh (horse sound)</t>
+          <t>(to be) on</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
-      </c>
-      <c r="D420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>juosta</t>
+          <t>hidas</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>slow</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>anteeksi</t>
+          <t>monta</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>excuse me</t>
+          <t>many (partitive)</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>moni</t>
+          <t>lämmin</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
-      </c>
-      <c r="D423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>kolmesataa</t>
+          <t>teillä</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>you (plural) have</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>omistaa</t>
+          <t>kai</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>to own, to have property</t>
+          <t>maybe, I guess</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>kot kot</t>
+          <t>paljon onnea</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>cluck cluck (rooster sound)</t>
+          <t>best of luck</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>shamaani</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>shaman</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>elää</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>to live (as animal)</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8570,36 +8562,36 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>svengata</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>to groove, to swing</t>
+          <t>same</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>kasvaa</t>
+          <t>tanssia</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>to grow</t>
+          <t>to dance</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8610,34 +8602,42 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>tosi</t>
+          <t>tuo</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>really (adverb of degree, spoken language)</t>
+          <t>that (adjective)</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
-      </c>
-      <c r="D431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>päivänjatko</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>(s/he, it) is</t>
+          <t>continuation of a day</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
-      </c>
-      <c r="D432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -458,16 +458,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>saari</t>
+          <t>leipä</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>island</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,104 +478,112 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>voi ei</t>
+          <t>lompakko</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>oh no</t>
+          <t>wallet</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>soittaa</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>to play (an instrument)</t>
+          <t>all (determiner)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>uikkarit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>swimwear</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kuulua</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>to be heard</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ketä</t>
+          <t>harrastaa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>whom (partitive)</t>
+          <t>to have (as) a hobby</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pirtelö</t>
+          <t>koti</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>milkshake</t>
+          <t>home</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,16 +594,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>huono</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -606,12 +614,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>poro</t>
+          <t>saari</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>reindeer</t>
+          <t>island</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -626,12 +634,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>to think (over)</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -639,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
@@ -706,12 +714,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kunto</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -726,12 +734,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -739,35 +747,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -775,19 +787,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hetki</t>
+          <t>kello</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>moment (of time)</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -802,12 +814,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>tyttö</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -822,68 +834,64 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>harrastaa</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>to have (as) a hobby</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>te</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>you (plural)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>tori</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>all (determiner)</t>
+          <t>market square</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>toinen</t>
+          <t>silta</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>other, another</t>
+          <t>bridge</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -891,19 +899,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>kello</t>
+          <t>halpa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -911,19 +919,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tyttö</t>
+          <t>kylmä</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -931,87 +939,95 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>joki</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>river</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hyvin</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>well (adverb)</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>saada</t>
+          <t>valmis</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>to get</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>oranssi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>orange (color)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>olut</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>beer</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1026,44 +1042,52 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>ystävä</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>you (plural)</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tori</t>
+          <t>toivoa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>market square</t>
+          <t>to hope</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1071,35 +1095,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>missä</t>
+          <t>eläin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>where (relative)</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>silta</t>
+          <t>pohjoinen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>northern</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1107,39 +1135,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>karaoke</t>
+          <t>yksitoista</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>karaoke</t>
+          <t>eleven</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>halpa</t>
+          <t>prinsessa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>princess</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1147,19 +1171,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1174,12 +1198,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pistoke</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>power plug</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1194,12 +1218,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>kylmä</t>
+          <t>ruskea</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1214,12 +1238,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>maalata</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>to paint</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1227,35 +1251,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-kä</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Venäjä</t>
+          <t>enemmän</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>more (not enough)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1266,32 +1294,28 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>joki</t>
+          <t>uudelleen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>again (periodically)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>krokotiili</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>crocodile</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1299,19 +1323,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>valmis</t>
+          <t>yhtään</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>any (at all)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1322,32 +1346,28 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>oranssi</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>orange (color)</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>elokuva</t>
+          <t>hirvi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>movie</t>
+          <t>moose</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1362,12 +1382,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>huomata</t>
+          <t>lause</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>to notice</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1375,19 +1395,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1402,68 +1422,64 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ohi</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>over, past</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>äiti</t>
+          <t>pulassa</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>in trouble</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>komea</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>and</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ystävä</t>
+          <t>haista</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>to smell (badly)</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1471,59 +1487,51 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>to have stopped (clock)</t>
+          <t>quickly (adverb)</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>kala</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1538,68 +1546,64 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>toivoa</t>
+          <t>miten</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>to hope</t>
+          <t>how (+ usein)</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>eläin</t>
+          <t>koti ikävä</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>onneksi</t>
+          <t>takki</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>good thing, luckily, thankfully</t>
+          <t>coat, jacket</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>pohjoinen</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>northern</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1614,12 +1618,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>yksitoista</t>
+          <t>olla ostoksilla</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>eleven</t>
+          <t>to be shopping</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1630,12 +1634,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>prinsessa</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>princess</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1650,12 +1654,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1663,19 +1667,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>lamppu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1690,32 +1694,28 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>taivas</t>
+          <t>kotona</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sky</t>
+          <t>at home</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1723,19 +1723,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1750,12 +1750,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>makkara</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sausage</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1763,19 +1763,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>laulaa</t>
+          <t>hiljainen</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>to sing</t>
+          <t>quiet (adjective)</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1783,19 +1783,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>professori</t>
+          <t>sotkuinen</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>messy</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1803,19 +1803,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ruskea</t>
+          <t>vakava</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>serious</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1830,12 +1830,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1843,19 +1843,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1870,12 +1870,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>passi</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>passport</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1890,12 +1890,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1910,12 +1910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>piano</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>piano</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1930,12 +1930,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>nousta ylös</t>
+          <t>unkari</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>to get up</t>
+          <t>Hungarian language</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1943,51 +1943,59 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>enemmän</t>
+          <t>lusikka</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>more (not enough)</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>kaukana</t>
+          <t>hotelli</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>far away</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lasi</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>glass (of water)</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2002,28 +2010,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>uudelleen</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>again (periodically)</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>krokotiili</t>
+          <t>rakennus</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>crocodile</t>
+          <t>building</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2038,12 +2050,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>maa</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>soil, ground</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2058,44 +2070,52 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>yhtään</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>any (at all)</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>hirvi</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>moose</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2110,12 +2130,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>lause</t>
+          <t>kampa</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sentence</t>
+          <t>comb</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2130,12 +2150,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2150,12 +2170,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>helmi</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>pearl</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2170,44 +2190,52 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>lumi</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>pulassa</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>in trouble</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>riisi</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2215,19 +2243,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2238,32 +2266,28 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>haista</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>to smell (badly)</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>minkävärinen</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>quickly (adverb)</t>
+          <t>what color</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2274,12 +2298,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>kulta</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>darling</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2290,12 +2314,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>suuri</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2303,19 +2327,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>tehdä</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>to do, to make</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2323,19 +2347,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>miten</t>
+          <t>neljä</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>how (+ usein)</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2346,32 +2370,28 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>pestä</t>
+          <t>jee</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>to wash</t>
+          <t>yay</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>tuossa</t>
+          <t>mikä</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>right there</t>
+          <t>what (object)</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2382,112 +2402,100 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>lompakko</t>
+          <t>ei mitään</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>wallet</t>
+          <t>nothing (special)</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>koti ikävä</t>
+          <t>ajatella</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>to think (involunteraly)</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>voi</t>
+          <t>mur</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>butter</t>
+          <t>growl (bear sound)</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>anteeksi</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>excuse me</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>puhua</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>to speak (a language)</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>takki</t>
+          <t>voi</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>coat, jacket</t>
+          <t>butter</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2498,92 +2506,92 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>venäjä</t>
+          <t>hyvin</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Russian (language)</t>
+          <t>well (adverb)</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>liha</t>
+          <t>harmaa</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>grey</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>kunto</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>condition</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>olla ostoksilla</t>
+          <t>äiti</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>to be shopping</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2594,112 +2602,108 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>elokuva</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>lamppu</t>
+          <t>nam</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>yum</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>kuoro</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>choir</t>
+          <t>to think (over)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>kotona</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>at home</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>liha</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2710,16 +2714,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>komea</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>handsome</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2730,156 +2734,152 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>hiljainen</t>
+          <t>insinööri</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>quiet (adjective)</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sotkuinen</t>
+          <t>pirtelö</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>messy</t>
+          <t>milkshake</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>varovainen</t>
+          <t>laulaa</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>careful</t>
+          <t>to sing</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>huono</t>
+          <t>saada</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>to get</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>söpö</t>
+          <t>kaukana</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>cute</t>
+          <t>far away</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>australialainen</t>
+          <t>lintu</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>harmaa</t>
+          <t>Saksa</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>grey</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>vakava</t>
+          <t>varovainen</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>serious</t>
+          <t>careful</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2890,16 +2890,16 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>viisas</t>
+          <t>australialainen</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>wise</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2910,36 +2910,36 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>tyhjä</t>
+          <t>soittaa</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>to play (an instrument)</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>suuri</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2950,36 +2950,36 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>karaoke</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>karaoke</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2990,16 +2990,16 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>veitsi</t>
+          <t>maa</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>soil, ground</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>insinööri</t>
+          <t>makkara</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>sausage</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3030,96 +3030,92 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>kasvaa</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>to grow</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>toinen</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>other, another</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>biisi</t>
+          <t>kolmesataa</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>(pop, rock) song</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>lintu</t>
+          <t>kuolla</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>bird</t>
+          <t>to die</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>katu</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3130,36 +3126,32 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>unkari</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hungarian language</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lusikka</t>
+          <t>violetti</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3170,116 +3162,112 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>hotelli</t>
+          <t>joo</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>lainata</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>to borrow</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>uikkarit</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>swimwear</t>
+          <t>to have stopped (clock)</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>puhua</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>to speak (a language)</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>leipä</t>
+          <t>olut</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>beer</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3290,56 +3278,48 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>rakennus</t>
+          <t>ketä</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>whom (partitive)</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Saksa</t>
+          <t>voi ei</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>oh no</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>veitsi</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3350,76 +3330,72 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>huomata</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>to notice</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>murre</t>
+          <t>missä</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>where (relative)</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>suola</t>
+          <t>varoa</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>salt</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>professori</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3430,56 +3406,52 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>tyhjä</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>kampa</t>
+          <t>onneksi</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>comb</t>
+          <t>good thing, luckily, thankfully</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>koti</t>
+          <t>hetki</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>moment (of time)</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3490,36 +3462,36 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>pestä</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>to wash</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>helmi</t>
+          <t>taivas</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>pearl</t>
+          <t>sky</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3530,36 +3502,36 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>violetti</t>
+          <t>söpö</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>cute</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>lumi</t>
+          <t>suola</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>salt</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3570,428 +3542,456 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>kymmenen</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>riisi</t>
+          <t>moni</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>many</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>lainata</t>
+          <t>-kä</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>to borrow</t>
+          <t>nor</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>lasi</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>glass (of water)</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>pistoke</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>power plug</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>minkävärinen</t>
+          <t>Venäjä</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>what color</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>kymmenen</t>
+          <t>biisi</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>(pop, rock) song</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>kulta</t>
+          <t>muutama</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>darling</t>
+          <t>a few</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>tuossa</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>right there</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>muutama</t>
+          <t>murre</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>a few</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>varoa</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>tehdä</t>
+          <t>venäjä</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>to do, to make</t>
+          <t>Russian (language)</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>neljä</t>
+          <t>piano</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>piano</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>nam</t>
+          <t>passi</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>yum</t>
+          <t>passport</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>jee</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>yay</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>mikä</t>
+          <t>nousta ylös</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>what (object)</t>
+          <t>to get up</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ei mitään</t>
+          <t>viisas</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>nothing (special)</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ajatella</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>to think (involunteraly)</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>mur</t>
+          <t>kala</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>growl (bear sound)</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>joo</t>
+          <t>kuoro</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>choir</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>anteeksi</t>
+          <t>ohi</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>excuse me</t>
+          <t>over, past</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>moni</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>kolmesataa</t>
+          <t>maalata</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>to paint</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>katu</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4002,36 +4002,36 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>kasvaa</t>
+          <t>poro</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>to grow</t>
+          <t>reindeer</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>kuolla</t>
+          <t>kuulua</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>to die</t>
+          <t>to be heard</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>leipä</t>
+          <t>harrastaa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>to have (as) a hobby</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -471,19 +471,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lompakko</t>
+          <t>kuuma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wallet</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -491,55 +491,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>kiinni</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>all (determiner)</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>-1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>uikkarit</t>
+          <t>ei mitään</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>swimwear</t>
+          <t>nothing (special)</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>-1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>keitto</t>
+          <t>kampa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>comb</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -554,72 +554,68 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>harrastaa</t>
+          <t>koti</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>to have (as) a hobby</t>
+          <t>home</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>koti</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>all (determiner)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>huono</t>
+          <t>lompakko</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>wallet</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>saari</t>
+          <t>huono</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>island</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -627,19 +623,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>väärä</t>
+          <t>keitto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>wrong (adjective)</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -647,19 +643,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kuuma</t>
+          <t>leipä</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -667,19 +663,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>taulu</t>
+          <t>uikkarit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>picture (anything to be put on a wall)</t>
+          <t>swimwear</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -694,12 +690,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>onnellinen</t>
+          <t>väärä</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>wrong (adjective)</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -714,12 +710,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kenkä</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>shoe</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -727,19 +723,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -747,19 +743,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>ystävä</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -774,12 +770,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hiki</t>
+          <t>toivoa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sweat (body fluid)</t>
+          <t>to hope</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -787,39 +783,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kello</t>
+          <t>yksitoista</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>eleven</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tyttö</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -834,12 +826,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>montako</t>
+          <t>pulassa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>many (partitive, question)</t>
+          <t>in trouble</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -850,28 +842,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>haista</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>you (plural)</t>
+          <t>to smell (badly)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tori</t>
+          <t>takki</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>market square</t>
+          <t>coat, jacket</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -886,12 +882,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>silta</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -899,19 +895,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>halpa</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -919,19 +915,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>kylmä</t>
+          <t>hiljainen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>quiet (adjective)</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -946,12 +942,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>joki</t>
+          <t>vakava</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>serious</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -959,19 +955,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hauska</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -979,35 +975,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>valmis</t>
+          <t>lusikka</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>oranssi</t>
+          <t>hotelli</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>orange (color)</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1015,39 +1015,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kahvi</t>
+          <t>minkävärinen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>what color</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ystävä</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1055,19 +1051,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>tehdä</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>to do, to make</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1075,19 +1071,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>toivoa</t>
+          <t>ajatella</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>to hope</t>
+          <t>to think (involunteraly)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1102,16 +1098,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eläin</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1122,92 +1118,88 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pohjoinen</t>
+          <t>yhtään</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>northern</t>
+          <t>any (at all)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>yksitoista</t>
+          <t>kotona</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>eleven</t>
+          <t>at home</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>prinsessa</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>princess</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>auki</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1218,108 +1210,112 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ruskea</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>Canadian person</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>älykäs</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>koti ikävä</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>home sickness</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>enemmän</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>more (not enough)</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>uudelleen</t>
+          <t>nätti</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>again (periodically)</t>
+          <t>pretty (adjective)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>krokotiili</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>crocodile</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1330,212 +1326,212 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>yhtään</t>
+          <t>jee</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>any (at all)</t>
+          <t>yay</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>hiki</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tyyne</t>
+          <t>sweat (body fluid)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>hirvi</t>
+          <t>halpa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>moose</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>lause</t>
+          <t>miten</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sentence</t>
+          <t>how (+ usein)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>montako</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>many (partitive, question)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pulassa</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>in trouble</t>
+          <t>Tyyne</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>pohjoinen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>northern</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>haista</t>
+          <t>rakennus</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>to smell (badly)</t>
+          <t>building</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>tori</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>quickly (adverb)</t>
+          <t>market square</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>anteeksi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>excuse me</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ketsuppi</t>
+          <t>unkari</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ketchup</t>
+          <t>Hungarian language</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1546,48 +1542,52 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>miten</t>
+          <t>olla ostoksilla</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>how (+ usein)</t>
+          <t>to be shopping</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>koti ikävä</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>home sickness</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>takki</t>
+          <t>riisi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>coat, jacket</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1598,92 +1598,92 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>kulta</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>darling</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>olla ostoksilla</t>
+          <t>älykäs</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>to be shopping</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>ruskea</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>kello</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lamppu</t>
+          <t>kaupunki</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1694,52 +1694,56 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kotona</t>
+          <t>kahvi</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>at home</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nätti</t>
+          <t>joki</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pretty (adjective)</t>
+          <t>river</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>helmi</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>pearl</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1750,176 +1754,168 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>kiinni</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>hiljainen</t>
+          <t>kenkä</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>quiet (adjective)</t>
+          <t>shoe</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sotkuinen</t>
+          <t>tyttö</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>messy</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>vakava</t>
+          <t>saari</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>serious</t>
+          <t>island</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>neljä</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>auki</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>sotkuinen</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>messy</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>mikä</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>what (object)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>lause</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1930,16 +1926,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>unkari</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hungarian language</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1950,16 +1946,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>lusikka</t>
+          <t>prinsessa</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>princess</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1970,36 +1966,36 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hotelli</t>
+          <t>oranssi</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>orange (color)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>hirvi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Canadian person</t>
+          <t>moose</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2010,16 +2006,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>ketsuppi</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>ketchup</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2030,76 +2026,68 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rakennus</t>
+          <t>nyt</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>now</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>onnellinen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>te</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>you (plural)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2110,96 +2098,80 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tabletti</t>
+          <t>valmis</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tablet</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>kampa</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>comb</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ruoka</t>
+          <t>uudelleen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>again (periodically)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>helmi</t>
+          <t>enemmän</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>pearl</t>
+          <t>more (not enough)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>lumi</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2210,36 +2182,36 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>kaupunki</t>
+          <t>kylmä</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>riisi</t>
+          <t>taulu</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>picture (anything to be put on a wall)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2250,238 +2222,266 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>nyt</t>
+          <t>lumi</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>and</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>minkävärinen</t>
+          <t>hauska</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>what color</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>kulta</t>
+          <t>ruoka</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>darling</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>quickly (adverb)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>tehdä</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>to do, to make</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>neljä</t>
+          <t>mur</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>growl (bear sound)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>jee</t>
+          <t>lamppu</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>yay</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>mikä</t>
+          <t>silta</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>what (object)</t>
+          <t>bridge</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ei mitään</t>
+          <t>eläin</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>nothing (special)</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ajatella</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>to think (involunteraly)</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>mur</t>
+          <t>krokotiili</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>growl (bear sound)</t>
+          <t>crocodile</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>anteeksi</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>excuse me</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>tabletti</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>tablet</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>American person</t>
+          <t>American (adjective)</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -491,19 +491,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>amerikkalainen</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>American (adjective)</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -511,19 +511,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>toivoa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>to hope</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -538,12 +538,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>toivoa</t>
+          <t>haista</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>to hope</t>
+          <t>to smell (badly)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -558,12 +558,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>haista</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>to smell (badly)</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -578,12 +578,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -598,12 +598,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>tehdä</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>to do, to make</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -618,12 +618,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tehdä</t>
+          <t>ajatella</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>to do, to make</t>
+          <t>to think (involunteraly)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -638,32 +638,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ajatella</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>to think (involunteraly)</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>yhtään</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>any (at all)</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -674,18 +670,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>yhtään</t>
+          <t>amerikkalainen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>any (at all)</t>
+          <t>American person</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">

--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -498,12 +498,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>helppo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -511,19 +511,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>toivoa</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>to hope</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -538,12 +538,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>haista</t>
+          <t>toivoa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>to smell (badly)</t>
+          <t>to hope</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -558,12 +558,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>grillata</t>
+          <t>haista</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>to grill</t>
+          <t>to smell (badly)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -578,12 +578,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>suositella</t>
+          <t>grillata</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>to recommend</t>
+          <t>to grill</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -598,12 +598,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tehdä</t>
+          <t>suositella</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>to do, to make</t>
+          <t>to recommend</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -618,12 +618,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ajatella</t>
+          <t>tehdä</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>to think (involunteraly)</t>
+          <t>to do, to make</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -638,28 +638,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>alas</t>
+          <t>ajatella</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>to think (involunteraly)</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>kenellä</t>
+          <t>tässä</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>who (has) (question)</t>
+          <t>right here</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -670,56 +674,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>täydellinen</t>
+          <t>liian</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>too (degree)</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jäätelö</t>
+          <t>korkea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>tall (not humans)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>korkea</t>
+          <t>vaikea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tall (not humans)</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -730,36 +730,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vaikea</t>
+          <t>sinappi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>helppo</t>
+          <t>täydellinen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sinappi</t>
+          <t>jäätelö</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mustard</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -790,32 +790,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>suolainen</t>
+          <t>kenellä</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>salty, savory</t>
+          <t>who (has) (question)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lisää</t>
+          <t>alas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>more (of something)</t>
+          <t>down</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -826,12 +822,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>yhtään</t>
+          <t>lisää</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>any (at all)</t>
+          <t>more (of something)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -842,32 +838,28 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kaunis</t>
+          <t>yhtään</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>beautiful</t>
+          <t>any (at all)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>amerikkalainen</t>
+          <t>kaunis</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>American (adjective)</t>
+          <t>beautiful</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -887,7 +879,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>American person</t>
+          <t>American (adjective)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -895,25 +887,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>liian</t>
+          <t>amerikkalainen</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>too (degree)</t>
+          <t>American person</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,32 +930,28 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>piilo</t>
+          <t>hiljaa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hiding place</t>
+          <t>quietly</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hiljaa</t>
+          <t>ei mitään</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>quietly</t>
+          <t>nothing (special)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -970,28 +962,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ei mitään</t>
+          <t>kuuma</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nothing (special)</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>kuuma</t>
+          <t>ahma</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>wolwerine</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -999,19 +995,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>huono</t>
+          <t>uikkarit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>swimwear</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1019,19 +1015,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sana</t>
+          <t>hotelli</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>hotel</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1046,32 +1042,28 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ahma</t>
+          <t>yksitoista</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>wolwerine</t>
+          <t>eleven</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>uikkarit</t>
+          <t>lompakko</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>swimwear</t>
+          <t>wallet</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1086,12 +1078,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hotelli</t>
+          <t>takki</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>hotel</t>
+          <t>coat, jacket</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1106,28 +1098,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>ystävä</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>all (determiner)</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pörröinen</t>
+          <t>timantti</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>fluffy</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1135,19 +1131,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>hiljainen</t>
+          <t>uusi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>quiet (adjective)</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1162,28 +1158,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>yksitoista</t>
+          <t>aika</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>eleven</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lompakko</t>
+          <t>kuu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wallet</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1198,12 +1198,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>takki</t>
+          <t>oopperatalo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>coat, jacket</t>
+          <t>opera house</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1218,12 +1218,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ystävä</t>
+          <t>käärme</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1238,12 +1238,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>timantti</t>
+          <t>tori</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>market square</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1258,12 +1258,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>uusi</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>salmiakki</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1271,39 +1271,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>aika</t>
+          <t>kulta</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>darling</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>kuu</t>
+          <t>joki</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>river</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1318,12 +1314,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>oopperatalo</t>
+          <t>Lontoo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>opera house</t>
+          <t>London</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1338,12 +1334,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>käärme</t>
+          <t>turisti</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1358,32 +1354,28 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tori</t>
+          <t>mikä</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>market square</t>
+          <t>what (object)</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>unkari</t>
+          <t>lause</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hungarian language</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1398,28 +1390,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>olla ostoksilla</t>
+          <t>Berliini</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>to be shopping</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>rahka</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>salmiakki</t>
+          <t>quark</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1434,12 +1430,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>kulta</t>
+          <t>vaikka</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>darling</t>
+          <t>although</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1450,52 +1446,44 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ruskea</t>
+          <t>uudelleen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>again (periodically)</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>joki</t>
+          <t>nopeasti</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>quickly (adverb)</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lontoo</t>
+          <t>kivi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>stone, rock</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1510,12 +1498,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>turisti</t>
+          <t>lamppu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1530,48 +1518,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mikä</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>what (object)</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>lause</t>
+          <t>miau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sentence</t>
+          <t>meow (cat sound)</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Berliini</t>
+          <t>voi</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>butter</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1586,12 +1574,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>rahka</t>
+          <t>äiti</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>quark</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1606,64 +1594,68 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vaikka</t>
+          <t>miettiä</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>to think (over)</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>uudelleen</t>
+          <t>tähti</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>again (periodically)</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>velho</t>
+          <t>rouva</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>wizard</t>
+          <t>Ms.</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>taulu</t>
+          <t>pirtelö</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>picture (anything to be put on a wall)</t>
+          <t>milkshake</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1678,28 +1670,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nopeasti</t>
+          <t>laulaa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>quickly (adverb)</t>
+          <t>to sing</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kivi</t>
+          <t>saada</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>stone, rock</t>
+          <t>to get</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1707,19 +1703,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>lamppu</t>
+          <t>lintu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>bird</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1734,12 +1730,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>soittaa</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>to play (an instrument)</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1747,35 +1743,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>miau</t>
+          <t>kasvi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>meow (cat sound)</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>voi</t>
+          <t>maa</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>butter</t>
+          <t>soil, ground</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1790,12 +1790,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>äiti</t>
+          <t>kasvaa</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>to grow</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1803,19 +1803,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>asukas</t>
+          <t>kuolla</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>inhabitant</t>
+          <t>to die</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1823,19 +1823,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>miettiä</t>
+          <t>hevonen</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>to think (over)</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1843,55 +1843,55 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>tähti</t>
+          <t>syötävä</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>edible</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>rouva</t>
+          <t>lainata</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ms.</t>
+          <t>to borrow</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>pirtelö</t>
+          <t>murista</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>milkshake</t>
+          <t>to growl</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1899,19 +1899,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>laulaa</t>
+          <t>seisoa</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>to sing</t>
+          <t>to have stopped (clock)</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1926,12 +1926,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>saada</t>
+          <t>puhua</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>to get</t>
+          <t>to speak (a language)</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1946,12 +1946,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>lintu</t>
+          <t>olut</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bird</t>
+          <t>beer</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1966,12 +1966,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>soittaa</t>
+          <t>veitsi</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>to play (an instrument)</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1979,19 +1979,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>suuri</t>
+          <t>huomata</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>to notice</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1999,19 +1999,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>kasvi</t>
+          <t>varoa</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2019,19 +2019,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>maa</t>
+          <t>professori</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>soil, ground</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2046,32 +2046,28 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kasvaa</t>
+          <t>onneksi</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>to grow</t>
+          <t>good thing, luckily, thankfully</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>kuolla</t>
+          <t>hetki</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>to die</t>
+          <t>moment (of time)</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2079,19 +2075,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>hevonen</t>
+          <t>pestä</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>to wash</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2099,35 +2095,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>syötävä</t>
+          <t>taivas</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>edible</t>
+          <t>sky</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>lainata</t>
+          <t>suola</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>to borrow</t>
+          <t>salt</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2135,59 +2135,51 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>murista</t>
+          <t>kymmenen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>to growl</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>seisoa</t>
+          <t>moni</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>to have stopped (clock)</t>
+          <t>many</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>puhua</t>
+          <t>lasi</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>to speak (a language)</t>
+          <t>glass (of water)</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2195,39 +2187,35 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>olut</t>
+          <t>muutama</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>beer</t>
+          <t>a few</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ketä</t>
+          <t>tuossa</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>whom (partitive)</t>
+          <t>right there</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2238,12 +2226,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>veitsi</t>
+          <t>ruuhka</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>traffic jam</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2258,32 +2246,28 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>huomata</t>
+          <t>varma</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>to notice</t>
+          <t>sure, certain</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>varoa</t>
+          <t>nousta ylös</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>to get up</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2298,32 +2282,28 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>professori</t>
+          <t>mitä</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>what (unspecified non-human object)</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>onneksi</t>
+          <t>kiire</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>good thing, luckily, thankfully</t>
+          <t>(to be in a) hurry</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2334,12 +2314,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>hetki</t>
+          <t>maalata</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>moment (of time)</t>
+          <t>to paint</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2347,19 +2327,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>pestä</t>
+          <t>katu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>to wash</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2367,19 +2347,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>taivas</t>
+          <t>sulaa</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sky</t>
+          <t>to melt</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2387,19 +2367,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>suola</t>
+          <t>kuulua</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>salt</t>
+          <t>to be heard</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2407,51 +2387,59 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>kymmenen</t>
+          <t>nämä</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>these</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>moni</t>
+          <t>hamsteri</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>hamster</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>lasi</t>
+          <t>kinuski</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>glass (of water)</t>
+          <t>kinusk</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2466,32 +2454,28 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>biisi</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>(pop, rock) song</t>
+          <t>Roosa</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>muutama</t>
+          <t>melkein</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>a few</t>
+          <t>almost</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2502,28 +2486,32 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>tuossa</t>
+          <t>juosta</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>right there</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ruuhka</t>
+          <t>ihailla</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>traffic jam</t>
+          <t>to admire</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2531,35 +2519,39 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>varma</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>sure, certain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>1</v>
       </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>nousta ylös</t>
+          <t>jalkapallo</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>to get up</t>
+          <t>soccer, football</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2567,35 +2559,39 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mitä</t>
+          <t>piirtää</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>what (unspecified non-human object)</t>
+          <t>to draw</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>kiire</t>
+          <t>au</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>(to be in a) hurry</t>
+          <t>ouch</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2606,12 +2602,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>maalata</t>
+          <t>myydä</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>to paint</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2626,12 +2622,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>katu</t>
+          <t>suklaa</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>chocolate</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2646,12 +2642,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sulaa</t>
+          <t>etsiä</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>to melt</t>
+          <t>to look for</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2666,32 +2662,28 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>kuulua</t>
+          <t>kahdeksan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>to be heard</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>nämä</t>
+          <t>halata</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>to hug</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2699,19 +2691,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>punainen</t>
+          <t>undulaatti</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>parakeet</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2719,19 +2711,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>hamsteri</t>
+          <t>nähdä</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>hamster</t>
+          <t>to see</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2739,19 +2731,19 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>kinuski</t>
+          <t>eväät</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>kinusk</t>
+          <t>packed meal</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2766,44 +2758,52 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>mauste</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Roosa</t>
+          <t>spice</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>melkein</t>
+          <t>katsella</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>almost</t>
+          <t>to watch</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>peli</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2818,12 +2818,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>juosta</t>
+          <t>Tanska</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -2831,59 +2831,51 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ihailla</t>
+          <t>vain</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>to admire</t>
+          <t>only</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>harvoin</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>seldom</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jalkapallo</t>
+          <t>lakritsi</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>soccer, football</t>
+          <t>licorice</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -2898,12 +2890,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>piirtää</t>
+          <t>siili</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>to draw</t>
+          <t>hedgehog</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2911,19 +2903,19 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>olet</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ouch</t>
+          <t>(you singular) are</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2934,12 +2926,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>myydä</t>
+          <t>housut</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2947,19 +2939,19 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>suklaa</t>
+          <t>svengata</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>chocolate</t>
+          <t>to swing</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -2967,19 +2959,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>etsiä</t>
+          <t>auttaa</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>to look for</t>
+          <t>to help</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -2994,28 +2986,32 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>kahdeksan</t>
+          <t>karanteeni</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>quarantine</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>halata</t>
+          <t>uida</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>to hug</t>
+          <t>to swim</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3030,12 +3026,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>undulaatti</t>
+          <t>leivos</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>parakeet</t>
+          <t>pastry</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3050,12 +3046,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>hattu</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>koala</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3070,32 +3066,28 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>nähdä</t>
+          <t>jolla</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>to see</t>
+          <t>who/which (has) (relative)</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>eväät</t>
+          <t>rauha</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>packed meal</t>
+          <t>peace</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3110,12 +3102,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>mauste</t>
+          <t>lukea</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>spice</t>
+          <t>to read</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3123,19 +3115,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>katsella</t>
+          <t>pesäpallo</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>to watch</t>
+          <t>nestball</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3143,19 +3135,19 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>peli</t>
+          <t>väri</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>color</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3170,12 +3162,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tanska</t>
+          <t>sovittaa</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>to try on</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3183,35 +3175,39 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vain</t>
+          <t>lippu</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>only</t>
+          <t>ticket, flag</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>harvoin</t>
+          <t>ehkä</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>seldom</t>
+          <t>maybe</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3222,12 +3218,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lakritsi</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>licorice</t>
+          <t>to fit</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3235,19 +3231,19 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>siili</t>
+          <t>norjalainen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>hedgehog</t>
+          <t>Norwegian person</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3262,12 +3258,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>olet</t>
+          <t>joka</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>(you singular) are</t>
+          <t>every (determiner)</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3278,12 +3274,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>housut</t>
+          <t>keskusta</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>city center</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3298,12 +3294,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>svengata</t>
+          <t>seinä</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>to swing</t>
+          <t>wall</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3311,19 +3307,19 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>kukka</t>
+          <t>haistella</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>to snif</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3331,19 +3327,19 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>auttaa</t>
+          <t>kitara</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>to help</t>
+          <t>guitar</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3351,19 +3347,19 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>karanteeni</t>
+          <t>siivota</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>quarantine</t>
+          <t>to tidy up</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3371,19 +3367,19 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>uida</t>
+          <t>sokeri</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>to swim</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3391,19 +3387,19 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>leivos</t>
+          <t>nälkä</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>pastry</t>
+          <t>hunger</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3418,12 +3414,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>tanskalainen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>koala</t>
+          <t>Danish person</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3438,12 +3434,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jolla</t>
+          <t>joku</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>who/which (has) (relative)</t>
+          <t>someone</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3454,12 +3450,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>appelsiini</t>
+          <t>lehmä</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>orange (fruit)</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3474,12 +3470,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>rauha</t>
+          <t>historia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>peace</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3494,12 +3490,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>lukea</t>
+          <t>sisu</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>to read</t>
+          <t>true grit</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3507,19 +3503,19 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>pesäpallo</t>
+          <t>laulaja</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>nestball</t>
+          <t>singer</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3534,12 +3530,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>lasit</t>
+          <t>pitää</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>(eye) glasses</t>
+          <t>needs to be</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3547,19 +3543,19 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>nuori</t>
+          <t>omistaa</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>to own</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3567,19 +3563,19 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>väri</t>
+          <t>vaari</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>grandpa</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3594,12 +3590,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>sovittaa</t>
+          <t>terassi</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>to try on</t>
+          <t>terrace</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3607,55 +3603,55 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>lippu</t>
+          <t>seitsemän</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ticket, flag</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ehkä</t>
+          <t>haluta</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>to want</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>puro</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>to fit</t>
+          <t>creek, brook, stream</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3663,19 +3659,19 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>norjalainen</t>
+          <t>morsian</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Norwegian person</t>
+          <t>bride</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3690,28 +3686,32 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>joka</t>
+          <t>eksyä</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>every (determiner)</t>
+          <t>to get lost</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>keskusta</t>
+          <t>kiltti</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>city center</t>
+          <t>well-behaved</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3719,19 +3719,19 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>seinä</t>
+          <t>televisio</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>wall</t>
+          <t>television</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3746,12 +3746,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>kameli</t>
+          <t>nimi</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3766,12 +3766,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>haistella</t>
+          <t>nauraa</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>to snif</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3786,52 +3786,44 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>kitara</t>
+          <t>vai</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>guitar</t>
+          <t>or (exclusive)</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>1</v>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>veranta</t>
+          <t>todella</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>veranda</t>
+          <t>really (adverb of degree)</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>1</v>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>siivota</t>
+          <t>metsä</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>to tidy up</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3839,19 +3831,19 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>sokeri</t>
+          <t>Rooma</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>Rome</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3866,12 +3858,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>nälkä</t>
+          <t>pitsa</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>hunger</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3886,12 +3878,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>tanskalainen</t>
+          <t>monumentti</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Danish person</t>
+          <t>monument</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3906,28 +3898,32 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>joku</t>
+          <t>kiisseli</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>someone</t>
+          <t>kissel</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>1</v>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lehmä</t>
+          <t>pelata</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>to play (a game)</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3935,19 +3931,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>historia</t>
+          <t>tiskata</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>to do the dishes</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3955,19 +3951,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>kirkko</t>
+          <t>keltainen</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3975,19 +3971,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>sisu</t>
+          <t>kanadalainen</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>true grit</t>
+          <t>Canadian (adjective)</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3995,19 +3991,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>laulaja</t>
+          <t>potkaista</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>singer</t>
+          <t>to kick</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4015,19 +4011,19 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>pitää</t>
+          <t>maistaa</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>needs to be</t>
+          <t>to taste (a dish)</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4042,12 +4038,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>omistaa</t>
+          <t>huomen</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>to own</t>
+          <t>forenoon</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4055,19 +4051,19 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>vaari</t>
+          <t>tee</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>grandpa</t>
+          <t>tea</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4082,12 +4078,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>terassi</t>
+          <t>hiiri</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>terrace</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4102,12 +4098,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>sininen</t>
+          <t>tulostin</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>printer</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4115,35 +4111,39 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>seitsemän</t>
+          <t>yliopisto</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>1</v>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>haluta</t>
+          <t>aasialainen</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>to want</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4151,19 +4151,19 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>puro</t>
+          <t>ostaa</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>creek, brook, stream</t>
+          <t>to buy</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4171,39 +4171,35 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>morsian</t>
+          <t>olemme</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>bride</t>
+          <t>(we) are</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>1</v>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>eksyä</t>
+          <t>aksentti</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>to get lost</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4211,19 +4207,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ihan</t>
+          <t>monta</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>pretty/rather (good)</t>
+          <t>many (partitive)</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4234,48 +4230,48 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>kiltti</t>
+          <t>teillä</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>well-behaved</t>
+          <t>you (plural) have</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>1</v>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>lähellä</t>
+          <t>elää</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>to live (as animal)</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>puoli</t>
+          <t>tanssia</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>to dance</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4283,19 +4279,19 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>vihreä</t>
+          <t>hai</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>shark</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -4303,19 +4299,19 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>televisio</t>
+          <t>ajaa</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>television</t>
+          <t>to drive (vehicle)</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -4323,39 +4319,35 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>nimi</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>nauraa</t>
+          <t>mehu</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>juice</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4363,35 +4355,39 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>vai</t>
+          <t>osata</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>or (exclusive)</t>
+          <t>to know how to</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>todella</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>really (adverb of degree)</t>
+          <t>they (inanimate)</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4402,32 +4398,28 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>hyvä</t>
+          <t>hyi</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>good (adjective)</t>
+          <t>yuck</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>pulla</t>
+          <t>huuhkaja</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>pulla</t>
+          <t>eagle owl</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -4442,12 +4434,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>metsä</t>
+          <t>kirjoittaa</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4455,19 +4447,19 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Rooma</t>
+          <t>tyttöystävä</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>girlfriend</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4482,48 +4474,48 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>pitsa</t>
+          <t>herra</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>Mr.</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>miksi</t>
+          <t>pingviini</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>why</t>
+          <t>penguin</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>1</v>
       </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>monumentti</t>
+          <t>puraista</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>monument</t>
+          <t>to bite</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4531,39 +4523,35 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>kiisseli</t>
+          <t>siisti</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>kissel</t>
+          <t>tidy</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>1</v>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>pelata</t>
+          <t>kuulokkeet</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>to play (a game)</t>
+          <t>headphones</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -4571,19 +4559,19 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>tiskata</t>
+          <t>korea</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>to do the dishes</t>
+          <t>Korean language</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -4591,19 +4579,19 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>keltainen</t>
+          <t>korjata</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>to repair</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4611,19 +4599,19 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>kanadalainen</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Canadian (adjective)</t>
+          <t>Skandinavia</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4631,35 +4619,39 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>kot kot</t>
+          <t>pöytä</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>cluck cluck (rooster sound)</t>
+          <t>table</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>1</v>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>potkaista</t>
+          <t>musiikki</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>to kick</t>
+          <t>music</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -4667,35 +4659,39 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>tutustua</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>to get to know</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>1</v>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>maistaa</t>
+          <t>seurata</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>to taste (a dish)</t>
+          <t>to follow</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -4710,28 +4706,32 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>juotava</t>
+          <t>nousta</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>drinkable</t>
+          <t>to rise</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>1</v>
       </c>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>huomen</t>
+          <t>itkeä</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>forenoon</t>
+          <t>to cry</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -4739,19 +4739,19 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>tee</t>
+          <t>veri</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>tea</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -4766,32 +4766,28 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>hiiri</t>
+          <t>jotka</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>who/that (nom. pl.)</t>
         </is>
       </c>
       <c r="C227" t="n">
         <v>1</v>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>tulostin</t>
+          <t>tarvita</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>printer</t>
+          <t>to need</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -4799,39 +4795,35 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>yliopisto</t>
+          <t>tervetuloa</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>welcome</t>
         </is>
       </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>aasialainen</t>
+          <t>afrikkalainen</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>African</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -4839,19 +4831,19 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ostaa</t>
+          <t>aamu</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>to buy</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -4859,19 +4851,19 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>sieni</t>
+          <t>hymyillä</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>mushroom</t>
+          <t>to smile</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -4879,35 +4871,39 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>olemme</t>
+          <t>Unkari</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>(we) are</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>aksentti</t>
+          <t>rakastaa</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>to love</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -4915,19 +4911,19 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>päällä</t>
+          <t>karkki</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>(to be) on</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -4935,67 +4931,79 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>monta</t>
+          <t>kahvila</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>many (partitive)</t>
+          <t>café</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>1</v>
       </c>
-      <c r="D236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>teillä</t>
+          <t>koripallo</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>you (plural) have</t>
+          <t>basketball</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>1</v>
       </c>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>paljon onnea</t>
+          <t>vauva</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>best of luck</t>
+          <t>baby</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>1</v>
       </c>
-      <c r="D238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>elää</t>
+          <t>juoda</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>to live (as animal)</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5010,12 +5018,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>sanoa</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>to say (some sound)</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5023,19 +5031,19 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>tanssia</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>to dance</t>
+          <t>road</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5043,19 +5051,19 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>hai</t>
+          <t>sulhanen</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>shark</t>
+          <t>groom</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -5070,48 +5078,48 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ajaa</t>
+          <t>yleensä</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>to drive (vehicle)</t>
+          <t>usually</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>1</v>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>ale</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>sale</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>1</v>
       </c>
-      <c r="D244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>pitkä</t>
+          <t>koru</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>tall (humans)</t>
+          <t>piece of jewelry</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -5119,39 +5127,35 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>mehu</t>
+          <t>millainen</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>juice</t>
+          <t>what kind of</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>1</v>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>asunto</t>
+          <t>voida</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>apartment</t>
+          <t>to be able to</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -5159,19 +5163,19 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>osata</t>
+          <t>pari</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>to know how to</t>
+          <t>couple</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -5179,55 +5183,55 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>lähin</t>
+          <t>nuo</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>those</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>poika</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>they (inanimate)</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>1</v>
       </c>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>hyi</t>
+          <t>viisisataa</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>yuck</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -5238,12 +5242,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>iloinen</t>
+          <t>olla ikävä</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>jolly</t>
+          <t>to miss</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -5251,19 +5255,19 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>huuhkaja</t>
+          <t>pätkiä</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>eagle owl</t>
+          <t>to cut in and out</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -5271,39 +5275,35 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>kirjoittaa</t>
+          <t>hei hei</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>bye</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>1</v>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>tyttöystävä</t>
+          <t>mummo</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>girlfriend</t>
+          <t>grandma</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -5318,44 +5318,52 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>herra</t>
+          <t>päivällinen</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Mr.</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>1</v>
       </c>
-      <c r="D256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>heillä</t>
+          <t>toimia</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>they have</t>
+          <t>to work</t>
         </is>
       </c>
       <c r="C257" t="n">
         <v>1</v>
       </c>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>pingviini</t>
+          <t>laulu</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>penguin</t>
+          <t>song</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -5370,32 +5378,28 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>puraista</t>
+          <t>kaksitoista</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>to bite</t>
+          <t>twelve</t>
         </is>
       </c>
       <c r="C259" t="n">
         <v>1</v>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>siisti</t>
+          <t>litra</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>tidy</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -5406,12 +5410,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>kuulokkeet</t>
+          <t>teatteri</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>headphones</t>
+          <t>theater</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -5426,44 +5430,52 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>kiitos</t>
+          <t>varjo</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>thank you</t>
+          <t>shadow, shade</t>
         </is>
       </c>
       <c r="C262" t="n">
         <v>1</v>
       </c>
-      <c r="D262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>titityy</t>
+          <t>pupu</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>tweet tweet (bird sound)</t>
+          <t>bunny</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>1</v>
       </c>
-      <c r="D263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>korea</t>
+          <t>avain</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Korean language</t>
+          <t>key</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -5478,12 +5490,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>korjata</t>
+          <t>pipo</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>to repair</t>
+          <t>beanie, knit cap, winter hat</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -5491,19 +5503,19 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>syödä</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Skandinavia</t>
+          <t>to eat</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -5511,39 +5523,35 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>pöytä</t>
+          <t>myöhä</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>late</t>
         </is>
       </c>
       <c r="C267" t="n">
         <v>1</v>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>musiikki</t>
+          <t>espanja</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>Spanish language</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -5558,12 +5566,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>tutustua</t>
+          <t>lautanen</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>to get to know</t>
+          <t>plate</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -5571,19 +5579,19 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>seurata</t>
+          <t>karjalanpiirakka</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>to follow</t>
+          <t>Karelian pasty</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -5591,19 +5599,19 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>kyllä</t>
+          <t>edes</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>even</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -5614,12 +5622,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>nousta</t>
+          <t>suksi</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>to rise</t>
+          <t>ski</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -5627,39 +5635,35 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>itkeä</t>
+          <t>olen</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>to cry</t>
+          <t>(I) am</t>
         </is>
       </c>
       <c r="C273" t="n">
         <v>1</v>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>veri</t>
+          <t>ääni</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>voice, sound</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -5674,28 +5678,32 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>jotka</t>
+          <t>muusikko</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>who/that (nom. pl.)</t>
+          <t>musician</t>
         </is>
       </c>
       <c r="C275" t="n">
         <v>1</v>
       </c>
-      <c r="D275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>poikaystävä</t>
+          <t>viikko</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -5710,12 +5718,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>tarvita</t>
+          <t>viikinki</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>to need</t>
+          <t>viking</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -5723,35 +5731,39 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>tervetuloa</t>
+          <t>asua</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>welcome</t>
+          <t>to live (in some place)</t>
         </is>
       </c>
       <c r="C278" t="n">
         <v>1</v>
       </c>
-      <c r="D278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>afrikkalainen</t>
+          <t>vaimo</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>African</t>
+          <t>wife</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -5766,12 +5778,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>aamu</t>
+          <t>minuutti</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>minute</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -5786,12 +5798,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>hymyillä</t>
+          <t>kuunnella</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>to smile</t>
+          <t>to listen</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -5806,12 +5818,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Unkari</t>
+          <t>hymy</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>a smile</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -5826,52 +5838,44 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>rakastaa</t>
+          <t>olette</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>to love</t>
+          <t>(you plural) are</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>1</v>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>karkki</t>
+          <t>kippis</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>candy</t>
+          <t>cheers</t>
         </is>
       </c>
       <c r="C284" t="n">
         <v>1</v>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>rikki</t>
+          <t>maa</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>broken</t>
+          <t>country</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -5879,39 +5883,35 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>kahvila</t>
+          <t>väärin</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>incorrect (adverb)</t>
         </is>
       </c>
       <c r="C286" t="n">
         <v>1</v>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>tässä</t>
+          <t>voi voi</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>right here</t>
+          <t>oh dear (~butter)</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -5922,12 +5922,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>koripallo</t>
+          <t>kellari</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>basketball</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -5942,12 +5942,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>vauva</t>
+          <t>vyö</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -5962,12 +5962,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>juoda</t>
+          <t>meemi</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>meme (IT)</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -5975,35 +5975,39 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>kuusisataa</t>
+          <t>ratsastaa</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>to ride (an animal)</t>
         </is>
       </c>
       <c r="C291" t="n">
         <v>1</v>
       </c>
-      <c r="D291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>sanoa</t>
+          <t>päivä</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>to say (some sound)</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -6011,39 +6015,35 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>kaksi</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>two</t>
         </is>
       </c>
       <c r="C293" t="n">
         <v>1</v>
       </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>sulhanen</t>
+          <t>virhe</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>groom</t>
+          <t>mistake, error</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -6058,28 +6058,32 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>yleensä</t>
+          <t>viro</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>usually</t>
+          <t>Estonian language</t>
         </is>
       </c>
       <c r="C295" t="n">
         <v>1</v>
       </c>
-      <c r="D295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ale</t>
+          <t>opettaja</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>sale</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -6094,12 +6098,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>koru</t>
+          <t>käyttää</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>piece of jewelry</t>
+          <t>to use</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -6107,35 +6111,39 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>millainen</t>
+          <t>käydä</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>what kind of</t>
+          <t>to visit</t>
         </is>
       </c>
       <c r="C298" t="n">
         <v>1</v>
       </c>
-      <c r="D298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>voida</t>
+          <t>linna</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>to be able to</t>
+          <t>castle</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -6143,19 +6151,19 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>pari</t>
+          <t>ruokalista</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>couple</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -6170,28 +6178,32 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>nuo</t>
+          <t>tomaatti</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>those</t>
+          <t>tomato</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>1</v>
       </c>
-      <c r="D301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>keittiö</t>
+          <t>sekunti</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>second (a measure of time)</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -6206,12 +6218,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>poika</t>
+          <t>baletti</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>ballet</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -6226,48 +6238,48 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>viisisataa</t>
+          <t>tyyni</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>1</v>
       </c>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>olla ikävä</t>
+          <t>jotain</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>to miss</t>
+          <t>something</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>1</v>
       </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>pätkiä</t>
+          <t>luulla</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>to cut in and out</t>
+          <t>to reckon</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -6282,28 +6294,32 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>hei hei</t>
+          <t>sitruuna</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>bye</t>
+          <t>lemon</t>
         </is>
       </c>
       <c r="C307" t="n">
         <v>1</v>
       </c>
-      <c r="D307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>mummo</t>
+          <t>yrittää</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>grandma</t>
+          <t>to try</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -6311,35 +6327,39 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>kuka</t>
+          <t>laturi</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>charger</t>
         </is>
       </c>
       <c r="C309" t="n">
         <v>1</v>
       </c>
-      <c r="D309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>päivällinen</t>
+          <t>suo</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>bog</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -6354,12 +6374,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>toimia</t>
+          <t>kuulla</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>to work</t>
+          <t>to hear</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -6374,12 +6394,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>laulu</t>
+          <t>netti</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>net (IT)</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -6394,28 +6414,32 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>kaksitoista</t>
+          <t>limonadi</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>twelve</t>
+          <t>soda pop</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>1</v>
       </c>
-      <c r="D313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>saippua</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>soap</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -6430,44 +6454,52 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>litra</t>
+          <t>kokki</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>1</v>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>muu</t>
+          <t>pilvi</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>moo (cow sound)</t>
+          <t>cloud</t>
         </is>
       </c>
       <c r="C316" t="n">
         <v>1</v>
       </c>
-      <c r="D316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>teatteri</t>
+          <t>tajuta</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>theater</t>
+          <t>to realize</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -6475,19 +6507,19 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>varjo</t>
+          <t>viettää</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>shadow, shade</t>
+          <t>to spend (time)</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -6495,19 +6527,19 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>pupu</t>
+          <t>aurinko</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>bunny</t>
+          <t>sun</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -6522,32 +6554,28 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>avain</t>
+          <t>mutta</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>but</t>
         </is>
       </c>
       <c r="C320" t="n">
         <v>1</v>
       </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>pipo</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>beanie, knit cap, winter hat</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -6562,12 +6590,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Islanti</t>
+          <t>Argentiina</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -6582,12 +6610,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>syödä</t>
+          <t>kävellä</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -6602,12 +6630,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>myöhä</t>
+          <t>sata</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -6618,12 +6646,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>espanja</t>
+          <t>maksaa</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Spanish language</t>
+          <t>to cost</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -6631,19 +6659,19 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>lautanen</t>
+          <t>sijaita</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>plate</t>
+          <t>to be located</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -6651,19 +6679,19 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>karjalanpiirakka</t>
+          <t>katto</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Karelian pasty</t>
+          <t>roof</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -6678,12 +6706,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>edes</t>
+          <t>täällä</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>over here</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -6694,32 +6722,28 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>suksi</t>
+          <t>minulla</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ski</t>
+          <t>I have</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>1</v>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>että</t>
+          <t>sekä että</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>that (conjunction)</t>
+          <t>both-and</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -6730,12 +6754,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>olen</t>
+          <t>kuinka</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>(I) am</t>
+          <t>how</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -6746,12 +6770,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ääni</t>
+          <t>sika</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>voice, sound</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -6766,12 +6790,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>muusikko</t>
+          <t>neuloa</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>musician</t>
+          <t>to knit</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -6779,19 +6803,19 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>viikko</t>
+          <t>istua</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>to sit</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -6799,19 +6823,19 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>viikinki</t>
+          <t>sima</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>viking</t>
+          <t>mead</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -6826,12 +6850,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>asua</t>
+          <t>kana</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>to live (in some place)</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -6839,39 +6863,35 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>vaimo</t>
+          <t>kuusi</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>wife</t>
+          <t>six</t>
         </is>
       </c>
       <c r="C337" t="n">
         <v>1</v>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ruma</t>
+          <t>kuppi</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ugly</t>
+          <t>cup (of)</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -6879,19 +6899,19 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>minuutti</t>
+          <t>kiina</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>Chinese language</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -6906,32 +6926,28 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>kuunnella</t>
+          <t>matkailu</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>to listen</t>
+          <t>traveling (noun)</t>
         </is>
       </c>
       <c r="C340" t="n">
         <v>1</v>
       </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+      <c r="D340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>hymy</t>
+          <t>englanti</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>a smile</t>
+          <t>English language</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -6946,44 +6962,52 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>olette</t>
+          <t>opiskella</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>(you plural) are</t>
+          <t>to study (in a school)</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>1</v>
       </c>
-      <c r="D342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>kippis</t>
+          <t>tammi</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>cheers</t>
+          <t>oak</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>1</v>
       </c>
-      <c r="D343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>paikallinen</t>
+          <t>paistaa</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>to shine (the sun)</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -6991,19 +7015,19 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>maa</t>
+          <t>miljoona</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>million</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -7018,44 +7042,52 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>väärin</t>
+          <t>kissa</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>incorrect (adverb)</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>1</v>
       </c>
-      <c r="D346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>voi voi</t>
+          <t>pihvi</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>oh dear (~butter)</t>
+          <t>steak</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>1</v>
       </c>
-      <c r="D347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>kellari</t>
+          <t>häiritä</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>to bother</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -7063,23 +7095,23 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>verb</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>vyö</t>
+          <t>unkari</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>Hungarian language</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -7090,124 +7122,136 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>meemi</t>
+          <t>vihreä</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>meme (IT)</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ratsastaa</t>
+          <t>taulu</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>to ride (an animal)</t>
+          <t>picture (anything to be put on a wall)</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>päivä</t>
+          <t>nuori</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>young</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>kolme</t>
+          <t>pulla</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>pulla</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
-      </c>
-      <c r="D353" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>terve</t>
+          <t>herkullinen</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>delicious</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
-      </c>
-      <c r="D354" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>kaksi</t>
+          <t>pörröinen</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>fluffy</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
-      </c>
-      <c r="D355" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>virhe</t>
+          <t>kirja</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>mistake, error</t>
+          <t>book</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -7218,16 +7262,16 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>sohva</t>
+          <t>hattu</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -7238,36 +7282,36 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>viro</t>
+          <t>paikallinen</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Estonian language</t>
+          <t>local</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>opettaja</t>
+          <t>asunto</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>apartment</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7278,56 +7322,56 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>käyttää</t>
+          <t>vanha</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>to use</t>
+          <t>old</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>käydä</t>
+          <t>punainen</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>to visit</t>
+          <t>red</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>linna</t>
+          <t>appelsiini</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>castle</t>
+          <t>orange (fruit)</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -7338,16 +7382,16 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ruokalista</t>
+          <t>sieni</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>mushroom</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7358,36 +7402,36 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>maito</t>
+          <t>musta</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>black</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>tomaatti</t>
+          <t>biisi</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>tomato</t>
+          <t>(pop, rock) song</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7398,128 +7442,136 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>sekunti</t>
+          <t>rikki</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>second (a measure of time)</t>
+          <t>broken</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>onko</t>
+          <t>puoli</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>is (in question)</t>
+          <t>half</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
-      </c>
-      <c r="D367" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>baletti</t>
+          <t>iloinen</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>ballet</t>
+          <t>jolly</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>tyyni</t>
+          <t>velho</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>wizard</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>jotain</t>
+          <t>ystävällinen</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>friendly</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
-      </c>
-      <c r="D370" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>luulla</t>
+          <t>suuri</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>to reckon</t>
+          <t>large</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>sitruuna</t>
+          <t>lasit</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>lemon</t>
+          <t>(eye) glasses</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7530,52 +7582,56 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>kaikki</t>
+          <t>suolainen</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>salty, savory</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
-      </c>
-      <c r="D373" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>yrittää</t>
+          <t>asukas</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>to try</t>
+          <t>inhabitant</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ystävällinen</t>
+          <t>huono</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>friendly</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7586,16 +7642,16 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>laturi</t>
+          <t>maito</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>charger</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7606,16 +7662,16 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>suo</t>
+          <t>video</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>bog</t>
+          <t>video</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7626,36 +7682,36 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>kuulla</t>
+          <t>pitkä</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>to hear</t>
+          <t>tall (humans)</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>netti</t>
+          <t>sana</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>net (IT)</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7666,52 +7722,56 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>loppu</t>
+          <t>lähin</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>out of</t>
+          <t>closest</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
-      </c>
-      <c r="D380" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>limonadi</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>soda pop</t>
+          <t>same</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Egypti</t>
+          <t>keittiö</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7722,32 +7782,36 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>hiljainen</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>well (phrase)</t>
+          <t>quiet (adjective)</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
-      </c>
-      <c r="D383" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>kirkko</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>church</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7758,56 +7822,56 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>kokki</t>
+          <t>päällä</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>cook</t>
+          <t>(to be) on</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ujo</t>
+          <t>saippua</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>shy</t>
+          <t>soap</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>pilvi</t>
+          <t>veranta</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>veranda</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7818,56 +7882,56 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>tajuta</t>
+          <t>mukava</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>to realize</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>viettää</t>
+          <t>ruskea</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>to spend (time)</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>aurinko</t>
+          <t>kukka</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>sun</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7878,52 +7942,56 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>mutta</t>
+          <t>piilo</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>hiding place</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
-      </c>
-      <c r="D391" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>ujo</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>spruce</t>
+          <t>shy</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Argentiina</t>
+          <t>kameli</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7934,112 +8002,116 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>kävellä</t>
+          <t>hyvä</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>good (adjective)</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>sata</t>
+          <t>poikaystävä</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
-      </c>
-      <c r="D395" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>maksaa</t>
+          <t>ruma</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>to cost</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>sijaita</t>
+          <t>sininen</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>to be located</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>adjective</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>vanha</t>
+          <t>Islanti</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>adjective</t>
+          <t>noun</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>katto</t>
+          <t>Egypti</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>roof</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -8050,530 +8122,458 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>täällä</t>
+          <t>iso</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>over here</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
-      </c>
-      <c r="D400" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>minulla</t>
+          <t>sohva</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>I have</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
-      </c>
-      <c r="D401" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>koskaan</t>
+          <t>ketä</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>never, ever</t>
+          <t>whom (partitive)</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>sekä että</t>
+          <t>koskaan</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>both-and</t>
+          <t>never, ever</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>iso</t>
+          <t>kolme</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>three</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ei</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>no (auxiliary verb)</t>
+          <t>all (determiner)</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>kuinka</t>
+          <t>loppu</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>out of</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>sika</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>no (auxiliary verb)</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>neuloa</t>
+          <t>muu</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>to knit</t>
+          <t>moo (cow sound)</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>istua</t>
+          <t>kiitos</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>to sit</t>
+          <t>thank you</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>sima</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>mead</t>
+          <t>already</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>kirja</t>
+          <t>että</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>that (conjunction)</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>kana</t>
+          <t>kot kot</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>cluck cluck (rooster sound)</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>kuusi</t>
+          <t>miksi</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>why</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>musta</t>
+          <t>kuka</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>who</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>herkullinen</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>delicious</t>
+          <t>well (phrase)</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>kuppi</t>
+          <t>kaikki</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>cup (of)</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>kiina</t>
+          <t>heillä</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Chinese language</t>
+          <t>they have</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>matkailu</t>
+          <t>olla ostoksilla</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>traveling (noun)</t>
+          <t>to be shopping</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>englanti</t>
+          <t>juotava</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>English language</t>
+          <t>drinkable</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>opiskella</t>
+          <t>terve</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>to study (in a school)</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>mukava</t>
+          <t>titityy</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>tweet tweet (bird sound)</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>adjective</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>tammi</t>
+          <t>paljon onnea</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>oak</t>
+          <t>best of luck</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>paistaa</t>
+          <t>lähellä</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>to shine (the sun)</t>
+          <t>near</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>miljoona</t>
+          <t>kuusisataa</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>million</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>kissa</t>
+          <t>ihan</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>pretty/rather (good)</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>pihvi</t>
+          <t>onko</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>steak</t>
+          <t>is (in question)</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>noun</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>häiritä</t>
+          <t>kyllä</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>to bother</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>verb</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
